--- a/Outputs/1. Budget/Grid Search/Output Files/420000/Output_4_16.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/420000/Output_4_16.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>534565.0905266729</v>
+        <v>459907.283455738</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>406463.2981009814</v>
+        <v>406463.2981009823</v>
       </c>
     </row>
     <row r="8">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8074506.738361663</v>
+        <v>8074506.738361662</v>
       </c>
     </row>
     <row r="11">
@@ -667,16 +667,16 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
+        <v>212.285385643442</v>
+      </c>
+      <c r="F2" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -715,13 +715,13 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -737,25 +737,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>64.13607908574249</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>29.79900896488263</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -791,19 +791,19 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -858,13 +858,13 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>44.30348359856715</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -879,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -901,10 +901,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -919,7 +919,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -940,16 +940,16 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>9.234466016111892</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>223.0958495641314</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -977,25 +977,25 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>104.1223590005057</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>11.01727716149734</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,10 +1022,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
@@ -1037,7 +1037,7 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
@@ -1074,13 +1074,13 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>14.83685490770591</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1113,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>130.4655268502615</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1138,22 +1138,22 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>1.809496073036132</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="I8" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,16 +1180,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>94.41048699370604</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1214,28 +1214,28 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>98.47382483861915</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>38.0543389475021</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>171.6831711038378</v>
@@ -1268,10 +1268,10 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
@@ -1311,46 +1311,46 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0</v>
+      </c>
+      <c r="V10" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>0</v>
-      </c>
-      <c r="R10" t="n">
-        <v>0</v>
-      </c>
-      <c r="S10" t="n">
-        <v>0</v>
-      </c>
-      <c r="T10" t="n">
-        <v>0</v>
-      </c>
-      <c r="U10" t="n">
-        <v>0</v>
-      </c>
-      <c r="V10" t="n">
-        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1375,67 +1375,67 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>20.75911149906596</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="F11" t="n">
-        <v>276.1565137023555</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>276.1565137023555</v>
       </c>
       <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0</v>
+      </c>
+      <c r="T11" t="n">
+        <v>222.4795457699687</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="n">
+        <v>0</v>
+      </c>
+      <c r="X11" t="n">
         <v>276.1565137023555</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>0</v>
-      </c>
-      <c r="R11" t="n">
-        <v>141.0252816852793</v>
-      </c>
-      <c r="S11" t="n">
-        <v>0</v>
-      </c>
-      <c r="T11" t="n">
-        <v>102.2133755837553</v>
-      </c>
-      <c r="U11" t="n">
-        <v>0</v>
-      </c>
-      <c r="V11" t="n">
-        <v>0</v>
-      </c>
-      <c r="W11" t="n">
-        <v>0</v>
-      </c>
-      <c r="X11" t="n">
-        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1448,7 +1448,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>68.70013939739761</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -1469,7 +1469,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>86.80307722268739</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1505,7 +1505,7 @@
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>175.7569470849743</v>
+        <v>225.9364262421938</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -1517,7 +1517,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1542,10 +1542,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>167.9278262653587</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>7.203367682519216</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1581,7 +1581,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>175.1311939478779</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -1615,16 +1615,16 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>414.4633753356636</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>322.424743328098</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1669,10 +1669,10 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>265.5931378950197</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1685,16 +1685,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>111.6063919529475</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883157</v>
+        <v>3.561430184062718</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
         <v>145.0692123933839</v>
@@ -1706,7 +1706,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>73.93425515493652</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,13 +1733,13 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>72.27434132826728</v>
+        <v>72.27434132826733</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>198.35454715303</v>
       </c>
       <c r="U15" t="n">
         <v>225.9118361363319</v>
@@ -1785,10 +1785,10 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>135.7945602145066</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>66.73999539781624</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1809,10 +1809,10 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>54.63455058802106</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>160.3641786191054</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1824,13 +1824,13 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>165.3956414956209</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>59.98826205530212</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -1852,19 +1852,19 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I17" t="n">
-        <v>39.22879305694467</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1891,10 +1891,10 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -1909,7 +1909,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -1940,7 +1940,7 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H18" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553069</v>
       </c>
       <c r="I18" t="n">
         <v>61.42221998250819</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>49.71123688229251</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S18" t="n">
         <v>156.5912426325231</v>
@@ -2001,13 +2001,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>126.5467427872845</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2058,10 +2058,10 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>156.1271626621471</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -2083,10 +2083,10 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -2101,7 +2101,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2128,7 +2128,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -2143,13 +2143,13 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>132.3401402600189</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>16.60557849018839</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2180,7 +2180,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I21" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250752</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2210,7 +2210,7 @@
         <v>49.71123688229332</v>
       </c>
       <c r="S21" t="n">
-        <v>156.5912426325221</v>
+        <v>156.5912426325231</v>
       </c>
       <c r="T21" t="n">
         <v>196.8897623984489</v>
@@ -2247,16 +2247,16 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>94.63926978364033</v>
       </c>
       <c r="F22" t="n">
-        <v>50.86429663463601</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -2295,13 +2295,13 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2317,13 +2317,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>76.80462337977853</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>225.4603876057573</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -2374,19 +2374,19 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2414,7 +2414,7 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H24" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553069</v>
       </c>
       <c r="I24" t="n">
         <v>61.42221998250819</v>
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>49.71123688229251</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S24" t="n">
         <v>156.5912426325231</v>
@@ -2532,19 +2532,19 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>128.7835007017901</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>223.1498336210771</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2554,19 +2554,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -2602,28 +2602,28 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S26" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V26" t="n">
-        <v>196.619753129734</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>358.9670275741416</v>
       </c>
     </row>
     <row r="27">
@@ -2712,25 +2712,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>28.1011571445228</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>167.3098022590509</v>
+        <v>54.65520119711159</v>
       </c>
       <c r="H28" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2775,7 +2775,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2803,13 +2803,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>323.9918595228954</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>157.8381208675085</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2848,19 +2848,19 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2924,7 +2924,7 @@
         <v>156.5912426325231</v>
       </c>
       <c r="T30" t="n">
-        <v>196.8897623984484</v>
+        <v>196.8897623984489</v>
       </c>
       <c r="U30" t="n">
         <v>225.8879277888686</v>
@@ -2955,7 +2955,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>94.63926978364032</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -3009,10 +3009,10 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>129.0246247964033</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3034,22 +3034,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>116.3856072204738</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>151.9313162448612</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3085,16 +3085,16 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V32" t="n">
-        <v>257.7464203451298</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -3122,13 +3122,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>136.5310119231965</v>
+        <v>136.5310119231958</v>
       </c>
       <c r="H33" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I33" t="n">
-        <v>61.42221998250815</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>49.71123688229326</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S33" t="n">
         <v>156.5912426325231</v>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3198,7 +3198,7 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>94.63926978364033</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3243,19 +3243,19 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>43.31785343914049</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3268,10 +3268,10 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -3283,7 +3283,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H35" t="n">
-        <v>37.09126914671558</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3313,16 +3313,16 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S35" t="n">
-        <v>174.4157128089716</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T35" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U35" t="n">
-        <v>251.2241675082893</v>
+        <v>227.9200462529332</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -3331,10 +3331,10 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3365,7 +3365,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I36" t="n">
-        <v>61.42221998250823</v>
+        <v>61.42221998250796</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>49.7112368822934</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S36" t="n">
         <v>156.5912426325231</v>
@@ -3480,16 +3480,16 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>128.7835007017894</v>
+        <v>129.0246247964033</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3511,16 +3511,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H38" t="n">
-        <v>132.5621367133955</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3550,28 +3550,28 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S38" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>307.5386589270119</v>
       </c>
     </row>
     <row r="39">
@@ -3596,13 +3596,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>136.5310119231963</v>
+        <v>136.5310119231965</v>
       </c>
       <c r="H39" t="n">
         <v>104.3883541553076</v>
       </c>
       <c r="I39" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229251</v>
       </c>
       <c r="S39" t="n">
         <v>156.5912426325231</v>
@@ -3678,13 +3678,13 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>21.77898559074489</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -3717,19 +3717,19 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>129.0246247964033</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3739,16 +3739,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>57.44899573820057</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>134.2439092740087</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
@@ -3760,7 +3760,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3787,13 +3787,13 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>251.2241675082893</v>
@@ -3805,10 +3805,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3839,7 +3839,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I42" t="n">
-        <v>61.42221998250796</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S42" t="n">
         <v>156.5912426325231</v>
@@ -3903,13 +3903,13 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>94.63926978364033</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>27.37301815328992</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3942,25 +3942,25 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -3985,16 +3985,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4027,25 +4027,25 @@
         <v>54.47840257481172</v>
       </c>
       <c r="S44" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>110.1458031968982</v>
+        <v>176.4153746583871</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4076,7 +4076,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I45" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250752</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4137,7 +4137,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>156.1271626621471</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4197,7 +4197,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>156.1271626621471</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="C2" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="D2" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="E2" t="n">
+        <v>749.627473042513</v>
+      </c>
+      <c r="F2" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="G2" t="n">
         <v>262.7299197543128</v>
-      </c>
-      <c r="C2" t="n">
-        <v>262.7299197543128</v>
-      </c>
-      <c r="D2" t="n">
-        <v>262.7299197543128</v>
-      </c>
-      <c r="E2" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="F2" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="G2" t="n">
-        <v>19.28114311021272</v>
       </c>
       <c r="H2" t="n">
         <v>19.28114311021272</v>
@@ -4363,19 +4363,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U2" t="n">
-        <v>720.6083788665362</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V2" t="n">
-        <v>477.1596022224361</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W2" t="n">
-        <v>262.7299197543128</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X2" t="n">
-        <v>262.7299197543128</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y2" t="n">
-        <v>262.7299197543128</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="3">
@@ -4385,22 +4385,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>453.6378659568754</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="C3" t="n">
-        <v>279.1848366757484</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="D3" t="n">
-        <v>279.1848366757484</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E3" t="n">
-        <v>279.1848366757484</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F3" t="n">
-        <v>132.6502787026334</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G3" t="n">
-        <v>132.6502787026334</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H3" t="n">
         <v>19.28114311021272</v>
@@ -4412,22 +4412,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K3" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L3" t="n">
-        <v>374.6018090363993</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M3" t="n">
-        <v>613.2059550252818</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N3" t="n">
-        <v>851.8101010141643</v>
+        <v>496.4894350879777</v>
       </c>
       <c r="O3" t="n">
-        <v>894.6625969973069</v>
+        <v>735.0935810768601</v>
       </c>
       <c r="P3" t="n">
-        <v>894.6625969973069</v>
+        <v>917.7370586902109</v>
       </c>
       <c r="Q3" t="n">
         <v>964.0571555106362</v>
@@ -4439,22 +4439,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T3" t="n">
-        <v>761.8705608694022</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U3" t="n">
-        <v>761.8705608694022</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V3" t="n">
-        <v>761.8705608694022</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W3" t="n">
-        <v>518.4217842253022</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X3" t="n">
-        <v>518.4217842253022</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y3" t="n">
-        <v>518.4217842253022</v>
+        <v>49.38115216564972</v>
       </c>
     </row>
     <row r="4">
@@ -4506,25 +4506,25 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q4" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W4" t="n">
         <v>19.28114311021272</v>
@@ -4543,28 +4543,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>274.7999090013961</v>
+        <v>749.627473042513</v>
       </c>
       <c r="C5" t="n">
-        <v>31.35113235729608</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D5" t="n">
-        <v>31.35113235729608</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E5" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F5" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G5" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H5" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I5" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J5" t="n">
         <v>19.28114311021272</v>
@@ -4588,31 +4588,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q5" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R5" t="n">
-        <v>954.7294120600181</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S5" t="n">
-        <v>743.5980286395683</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T5" t="n">
-        <v>518.2486856454962</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U5" t="n">
-        <v>518.2486856454962</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V5" t="n">
-        <v>518.2486856454962</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W5" t="n">
-        <v>518.2486856454962</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X5" t="n">
-        <v>518.2486856454962</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y5" t="n">
-        <v>274.7999090013961</v>
+        <v>749.627473042513</v>
       </c>
     </row>
     <row r="6">
@@ -4622,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>548.4453565401495</v>
+        <v>30.40970589960398</v>
       </c>
       <c r="C6" t="n">
-        <v>373.9923272590225</v>
+        <v>30.40970589960398</v>
       </c>
       <c r="D6" t="n">
-        <v>373.9923272590225</v>
+        <v>30.40970589960398</v>
       </c>
       <c r="E6" t="n">
-        <v>214.754872253567</v>
+        <v>30.40970589960398</v>
       </c>
       <c r="F6" t="n">
-        <v>214.754872253567</v>
+        <v>30.40970589960398</v>
       </c>
       <c r="G6" t="n">
-        <v>109.5807722530562</v>
+        <v>30.40970589960398</v>
       </c>
       <c r="H6" t="n">
-        <v>109.5807722530562</v>
+        <v>30.40970589960398</v>
       </c>
       <c r="I6" t="n">
         <v>19.28114311021272</v>
@@ -4655,43 +4655,43 @@
         <v>249.2442489785619</v>
       </c>
       <c r="M6" t="n">
-        <v>473.4149733950735</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N6" t="n">
-        <v>712.019119383956</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O6" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P6" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q6" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S6" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T6" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="U6" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="V6" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="W6" t="n">
-        <v>964.0571555106362</v>
+        <v>446.0215048700907</v>
       </c>
       <c r="X6" t="n">
-        <v>756.2056553051034</v>
+        <v>238.1700046645579</v>
       </c>
       <c r="Y6" t="n">
-        <v>548.4453565401495</v>
+        <v>30.40970589960398</v>
       </c>
     </row>
     <row r="7">
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C7" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D7" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E7" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F7" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G7" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H7" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I7" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K7" t="n">
         <v>19.28114311021272</v>
@@ -4761,16 +4761,16 @@
         <v>151.0645035650224</v>
       </c>
       <c r="V7" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W7" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X7" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y7" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C8" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D8" t="n">
-        <v>962.2293816994886</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E8" t="n">
-        <v>962.2293816994886</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F8" t="n">
-        <v>718.7806050553886</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G8" t="n">
-        <v>475.3318284112885</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H8" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I8" t="n">
         <v>19.28114311021272</v>
@@ -4828,28 +4828,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R8" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S8" t="n">
-        <v>964.0571555106362</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="T8" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="U8" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="V8" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W8" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X8" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y8" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="9">
@@ -4859,28 +4859,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>481.7099827492369</v>
+        <v>119.5037857009976</v>
       </c>
       <c r="C9" t="n">
-        <v>307.2569534681098</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D9" t="n">
-        <v>307.2569534681098</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E9" t="n">
-        <v>148.0194984626543</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F9" t="n">
-        <v>148.0194984626543</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G9" t="n">
-        <v>109.5807722530562</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H9" t="n">
-        <v>109.5807722530562</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J9" t="n">
         <v>19.28114311021272</v>
@@ -4907,28 +4907,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S9" t="n">
-        <v>689.4702815141908</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T9" t="n">
-        <v>689.4702815141908</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U9" t="n">
-        <v>689.4702815141908</v>
+        <v>562.4161926976942</v>
       </c>
       <c r="V9" t="n">
-        <v>689.4702815141908</v>
+        <v>327.2640844659515</v>
       </c>
       <c r="W9" t="n">
-        <v>689.4702815141908</v>
+        <v>327.2640844659515</v>
       </c>
       <c r="X9" t="n">
-        <v>689.4702815141908</v>
+        <v>327.2640844659515</v>
       </c>
       <c r="Y9" t="n">
-        <v>481.7099827492369</v>
+        <v>119.5037857009976</v>
       </c>
     </row>
     <row r="10">
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I10" t="n">
         <v>19.28114311021272</v>
@@ -4998,16 +4998,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="V10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="11">
@@ -5017,22 +5017,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>858.9304414063566</v>
+        <v>600.9532674636399</v>
       </c>
       <c r="C11" t="n">
-        <v>858.9304414063566</v>
+        <v>600.9532674636399</v>
       </c>
       <c r="D11" t="n">
-        <v>858.9304414063566</v>
+        <v>579.9844679696339</v>
       </c>
       <c r="E11" t="n">
-        <v>858.9304414063566</v>
+        <v>301.0384945329112</v>
       </c>
       <c r="F11" t="n">
-        <v>579.9844679696339</v>
+        <v>301.0384945329112</v>
       </c>
       <c r="G11" t="n">
-        <v>301.0384945329112</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="H11" t="n">
         <v>22.09252109618844</v>
@@ -5050,10 +5050,10 @@
         <v>344.9085595412869</v>
       </c>
       <c r="M11" t="n">
-        <v>586.3582880173957</v>
+        <v>586.3582880173956</v>
       </c>
       <c r="N11" t="n">
-        <v>817.0829279823544</v>
+        <v>817.0829279823542</v>
       </c>
       <c r="O11" t="n">
         <v>989.7620250901066</v>
@@ -5065,28 +5065,28 @@
         <v>1104.626054809422</v>
       </c>
       <c r="R11" t="n">
-        <v>962.1762753293418</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="S11" t="n">
-        <v>962.1762753293418</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="T11" t="n">
-        <v>858.9304414063566</v>
+        <v>879.8992409003627</v>
       </c>
       <c r="U11" t="n">
-        <v>858.9304414063566</v>
+        <v>879.8992409003627</v>
       </c>
       <c r="V11" t="n">
-        <v>858.9304414063566</v>
+        <v>879.8992409003627</v>
       </c>
       <c r="W11" t="n">
-        <v>858.9304414063566</v>
+        <v>879.8992409003627</v>
       </c>
       <c r="X11" t="n">
-        <v>858.9304414063566</v>
+        <v>600.9532674636399</v>
       </c>
       <c r="Y11" t="n">
-        <v>858.9304414063566</v>
+        <v>600.9532674636399</v>
       </c>
     </row>
     <row r="12">
@@ -5096,49 +5096,49 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>22.09252109618844</v>
+        <v>109.772397078701</v>
       </c>
       <c r="C12" t="n">
-        <v>22.09252109618844</v>
+        <v>109.772397078701</v>
       </c>
       <c r="D12" t="n">
-        <v>22.09252109618844</v>
+        <v>109.772397078701</v>
       </c>
       <c r="E12" t="n">
-        <v>22.09252109618844</v>
+        <v>109.772397078701</v>
       </c>
       <c r="F12" t="n">
-        <v>22.09252109618844</v>
+        <v>109.772397078701</v>
       </c>
       <c r="G12" t="n">
-        <v>22.09252109618844</v>
+        <v>109.772397078701</v>
       </c>
       <c r="H12" t="n">
-        <v>22.09252109618844</v>
+        <v>109.772397078701</v>
       </c>
       <c r="I12" t="n">
         <v>22.09252109618844</v>
       </c>
       <c r="J12" t="n">
-        <v>28.39914141318535</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="K12" t="n">
-        <v>165.799003153448</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="L12" t="n">
-        <v>165.799003153448</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="M12" t="n">
-        <v>439.1939517187799</v>
+        <v>295.4874696615203</v>
       </c>
       <c r="N12" t="n">
-        <v>562.3310704112777</v>
+        <v>568.8824182268522</v>
       </c>
       <c r="O12" t="n">
-        <v>828.8278839945615</v>
+        <v>835.379231810136</v>
       </c>
       <c r="P12" t="n">
-        <v>1025.71200399185</v>
+        <v>1032.263351807424</v>
       </c>
       <c r="Q12" t="n">
         <v>1104.626054809422</v>
@@ -5153,19 +5153,19 @@
         <v>1104.626054809422</v>
       </c>
       <c r="U12" t="n">
-        <v>927.0937850266196</v>
+        <v>876.4074424435696</v>
       </c>
       <c r="V12" t="n">
-        <v>691.9416767948769</v>
+        <v>641.2553342118269</v>
       </c>
       <c r="W12" t="n">
-        <v>437.7043200666752</v>
+        <v>387.0179774836253</v>
       </c>
       <c r="X12" t="n">
-        <v>229.8528198611424</v>
+        <v>179.1664772780925</v>
       </c>
       <c r="Y12" t="n">
-        <v>22.09252109618844</v>
+        <v>179.1664772780925</v>
       </c>
     </row>
     <row r="13">
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>198.9927170031359</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="C13" t="n">
-        <v>198.9927170031359</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="D13" t="n">
-        <v>198.9927170031359</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="E13" t="n">
-        <v>198.9927170031359</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="F13" t="n">
-        <v>198.9927170031359</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="G13" t="n">
-        <v>29.36865006843007</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="H13" t="n">
         <v>22.09252109618844</v>
@@ -5229,22 +5229,22 @@
         <v>198.9927170031359</v>
       </c>
       <c r="T13" t="n">
-        <v>198.9927170031359</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="U13" t="n">
-        <v>198.9927170031359</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="V13" t="n">
-        <v>198.9927170031359</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="W13" t="n">
-        <v>198.9927170031359</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="X13" t="n">
-        <v>198.9927170031359</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="Y13" t="n">
-        <v>198.9927170031359</v>
+        <v>22.09252109618844</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1253.665649021499</v>
+        <v>782.573050550918</v>
       </c>
       <c r="C14" t="n">
-        <v>1253.665649021499</v>
+        <v>782.573050550918</v>
       </c>
       <c r="D14" t="n">
-        <v>1253.665649021499</v>
+        <v>782.573050550918</v>
       </c>
       <c r="E14" t="n">
-        <v>867.8773964232548</v>
+        <v>782.573050550918</v>
       </c>
       <c r="F14" t="n">
-        <v>456.8914916336472</v>
+        <v>782.573050550918</v>
       </c>
       <c r="G14" t="n">
-        <v>38.24161755721934</v>
+        <v>363.9231764744901</v>
       </c>
       <c r="H14" t="n">
-        <v>38.24161755721934</v>
+        <v>38.24161755721931</v>
       </c>
       <c r="I14" t="n">
-        <v>38.24161755721934</v>
+        <v>38.24161755721931</v>
       </c>
       <c r="J14" t="n">
-        <v>96.93923871827189</v>
+        <v>96.93923871827164</v>
       </c>
       <c r="K14" t="n">
-        <v>305.6565612977708</v>
+        <v>305.6565612977703</v>
       </c>
       <c r="L14" t="n">
-        <v>616.8654835480065</v>
+        <v>616.8654835480058</v>
       </c>
       <c r="M14" t="n">
-        <v>979.7519185640718</v>
+        <v>979.7519185640709</v>
       </c>
       <c r="N14" t="n">
-        <v>1333.878237938972</v>
+        <v>1333.87823793897</v>
       </c>
       <c r="O14" t="n">
-        <v>1623.082041653882</v>
+        <v>1623.08204165388</v>
       </c>
       <c r="P14" t="n">
-        <v>1832.236414250549</v>
+        <v>1832.236414250548</v>
       </c>
       <c r="Q14" t="n">
-        <v>1912.080877860967</v>
+        <v>1912.080877860966</v>
       </c>
       <c r="R14" t="n">
-        <v>1912.080877860967</v>
+        <v>1912.080877860966</v>
       </c>
       <c r="S14" t="n">
-        <v>1912.080877860967</v>
+        <v>1912.080877860966</v>
       </c>
       <c r="T14" t="n">
-        <v>1912.080877860967</v>
+        <v>1912.080877860966</v>
       </c>
       <c r="U14" t="n">
-        <v>1912.080877860967</v>
+        <v>1912.080877860966</v>
       </c>
       <c r="V14" t="n">
-        <v>1912.080877860967</v>
+        <v>1912.080877860966</v>
       </c>
       <c r="W14" t="n">
-        <v>1912.080877860967</v>
+        <v>1559.312222590851</v>
       </c>
       <c r="X14" t="n">
-        <v>1643.804980997311</v>
+        <v>1559.312222590851</v>
       </c>
       <c r="Y14" t="n">
-        <v>1253.665649021499</v>
+        <v>1169.17289061504</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>593.1477256299841</v>
+        <v>337.3079894179116</v>
       </c>
       <c r="C15" t="n">
-        <v>418.6946963488571</v>
+        <v>333.7105851915856</v>
       </c>
       <c r="D15" t="n">
-        <v>418.6946963488571</v>
+        <v>184.7761755303343</v>
       </c>
       <c r="E15" t="n">
-        <v>259.4572413434016</v>
+        <v>184.7761755303343</v>
       </c>
       <c r="F15" t="n">
-        <v>112.9226833702865</v>
+        <v>38.24161755721931</v>
       </c>
       <c r="G15" t="n">
-        <v>112.9226833702865</v>
+        <v>38.24161755721931</v>
       </c>
       <c r="H15" t="n">
-        <v>112.9226833702865</v>
+        <v>38.24161755721931</v>
       </c>
       <c r="I15" t="n">
-        <v>38.24161755721934</v>
+        <v>38.24161755721931</v>
       </c>
       <c r="J15" t="n">
-        <v>38.24161755721934</v>
+        <v>38.24161755721931</v>
       </c>
       <c r="K15" t="n">
-        <v>235.3935185137495</v>
+        <v>38.24161755721931</v>
       </c>
       <c r="L15" t="n">
-        <v>561.8929756923571</v>
+        <v>364.7410747358267</v>
       </c>
       <c r="M15" t="n">
-        <v>994.8816638756016</v>
+        <v>797.7297629190709</v>
       </c>
       <c r="N15" t="n">
-        <v>1431.395759155982</v>
+        <v>1257.88538666793</v>
       </c>
       <c r="O15" t="n">
-        <v>1785.932577936997</v>
+        <v>1612.422205448945</v>
       </c>
       <c r="P15" t="n">
-        <v>1785.932577936997</v>
+        <v>1785.932577936996</v>
       </c>
       <c r="Q15" t="n">
-        <v>1912.080877860967</v>
+        <v>1912.080877860966</v>
       </c>
       <c r="R15" t="n">
-        <v>1839.076492680899</v>
+        <v>1839.076492680897</v>
       </c>
       <c r="S15" t="n">
-        <v>1839.076492680899</v>
+        <v>1839.076492680897</v>
       </c>
       <c r="T15" t="n">
-        <v>1839.076492680899</v>
+        <v>1638.718364243493</v>
       </c>
       <c r="U15" t="n">
-        <v>1610.882718805816</v>
+        <v>1410.524590368411</v>
       </c>
       <c r="V15" t="n">
-        <v>1375.730610574074</v>
+        <v>1175.372482136668</v>
       </c>
       <c r="W15" t="n">
-        <v>1121.493253845872</v>
+        <v>921.1351254084664</v>
       </c>
       <c r="X15" t="n">
-        <v>913.6417536403394</v>
+        <v>713.2836252029335</v>
       </c>
       <c r="Y15" t="n">
-        <v>705.8814548753855</v>
+        <v>505.5233264379796</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>242.8219767615859</v>
+        <v>38.24161755721931</v>
       </c>
       <c r="C16" t="n">
-        <v>242.8219767615859</v>
+        <v>38.24161755721931</v>
       </c>
       <c r="D16" t="n">
-        <v>242.8219767615859</v>
+        <v>38.24161755721931</v>
       </c>
       <c r="E16" t="n">
-        <v>242.8219767615859</v>
+        <v>38.24161755721931</v>
       </c>
       <c r="F16" t="n">
-        <v>242.8219767615859</v>
+        <v>38.24161755721931</v>
       </c>
       <c r="G16" t="n">
-        <v>242.8219767615859</v>
+        <v>38.24161755721931</v>
       </c>
       <c r="H16" t="n">
-        <v>242.8219767615859</v>
+        <v>38.24161755721931</v>
       </c>
       <c r="I16" t="n">
-        <v>105.6557543226903</v>
+        <v>38.24161755721931</v>
       </c>
       <c r="J16" t="n">
-        <v>38.24161755721934</v>
+        <v>38.24161755721931</v>
       </c>
       <c r="K16" t="n">
-        <v>59.50088325727391</v>
+        <v>59.50088325727382</v>
       </c>
       <c r="L16" t="n">
-        <v>142.2318586473011</v>
+        <v>142.231858647301</v>
       </c>
       <c r="M16" t="n">
-        <v>239.8491955519022</v>
+        <v>239.8491955519019</v>
       </c>
       <c r="N16" t="n">
-        <v>340.580026792241</v>
+        <v>340.5800267922407</v>
       </c>
       <c r="O16" t="n">
-        <v>417.6049576856839</v>
+        <v>417.6049576856835</v>
       </c>
       <c r="P16" t="n">
-        <v>459.9924103041379</v>
+        <v>459.9924103041374</v>
       </c>
       <c r="Q16" t="n">
-        <v>404.8059955687631</v>
+        <v>459.9924103041374</v>
       </c>
       <c r="R16" t="n">
-        <v>242.8219767615859</v>
+        <v>459.9924103041374</v>
       </c>
       <c r="S16" t="n">
-        <v>242.8219767615859</v>
+        <v>459.9924103041374</v>
       </c>
       <c r="T16" t="n">
-        <v>242.8219767615859</v>
+        <v>459.9924103041374</v>
       </c>
       <c r="U16" t="n">
-        <v>242.8219767615859</v>
+        <v>459.9924103041374</v>
       </c>
       <c r="V16" t="n">
-        <v>242.8219767615859</v>
+        <v>205.3079220982505</v>
       </c>
       <c r="W16" t="n">
-        <v>242.8219767615859</v>
+        <v>205.3079220982505</v>
       </c>
       <c r="X16" t="n">
-        <v>242.8219767615859</v>
+        <v>38.24161755721931</v>
       </c>
       <c r="Y16" t="n">
-        <v>242.8219767615859</v>
+        <v>38.24161755721931</v>
       </c>
     </row>
     <row r="17">
@@ -5491,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1249.712458167646</v>
+        <v>1331.377835177124</v>
       </c>
       <c r="C17" t="n">
-        <v>1249.712458167646</v>
+        <v>1331.377835177124</v>
       </c>
       <c r="D17" t="n">
-        <v>1249.712458167646</v>
+        <v>1331.377835177124</v>
       </c>
       <c r="E17" t="n">
-        <v>1249.712458167646</v>
+        <v>945.5895825788796</v>
       </c>
       <c r="F17" t="n">
-        <v>838.726553378038</v>
+        <v>534.603677789272</v>
       </c>
       <c r="G17" t="n">
-        <v>420.7627452762249</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H17" t="n">
-        <v>93.56802531222775</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I17" t="n">
         <v>53.94298182036444</v>
@@ -5539,28 +5539,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R17" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S17" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="T17" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="U17" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="V17" t="n">
-        <v>2366.086203674651</v>
+        <v>2134.880026519314</v>
       </c>
       <c r="W17" t="n">
-        <v>2013.317548404537</v>
+        <v>1782.1113712492</v>
       </c>
       <c r="X17" t="n">
-        <v>1639.851790143457</v>
+        <v>1782.1113712492</v>
       </c>
       <c r="Y17" t="n">
-        <v>1249.712458167646</v>
+        <v>1391.972039273389</v>
       </c>
     </row>
     <row r="18">
@@ -5570,22 +5570,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C18" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D18" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747043</v>
       </c>
       <c r="E18" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692488</v>
       </c>
       <c r="F18" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G18" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102423999</v>
       </c>
       <c r="H18" t="n">
         <v>115.9856282673424</v>
@@ -5612,31 +5612,31 @@
         <v>2307.072755435191</v>
       </c>
       <c r="P18" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152625</v>
       </c>
       <c r="Q18" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R18" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S18" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T18" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U18" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V18" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W18" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X18" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y18" t="n">
         <v>1156.713312237151</v>
@@ -5649,10 +5649,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>53.94298182036444</v>
+        <v>372.9958041606071</v>
       </c>
       <c r="C19" t="n">
-        <v>53.94298182036444</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="D19" t="n">
         <v>53.94298182036444</v>
@@ -5706,19 +5706,19 @@
         <v>500.820796875036</v>
       </c>
       <c r="U19" t="n">
-        <v>211.6471865296039</v>
+        <v>500.820796875036</v>
       </c>
       <c r="V19" t="n">
-        <v>53.94298182036444</v>
+        <v>500.820796875036</v>
       </c>
       <c r="W19" t="n">
-        <v>53.94298182036444</v>
+        <v>500.820796875036</v>
       </c>
       <c r="X19" t="n">
-        <v>53.94298182036444</v>
+        <v>500.820796875036</v>
       </c>
       <c r="Y19" t="n">
-        <v>53.94298182036444</v>
+        <v>500.820796875036</v>
       </c>
     </row>
     <row r="20">
@@ -5728,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1954.141365880777</v>
+        <v>2118.304160219349</v>
       </c>
       <c r="C20" t="n">
-        <v>1954.141365880777</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="D20" t="n">
-        <v>1595.875667274026</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="E20" t="n">
-        <v>1210.087414675782</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F20" t="n">
-        <v>799.1015098861747</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G20" t="n">
-        <v>381.1377017843616</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H20" t="n">
-        <v>53.94298182036444</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I20" t="n">
         <v>53.94298182036444</v>
@@ -5755,10 +5755,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K20" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L20" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M20" t="n">
         <v>1362.238747280443</v>
@@ -5776,28 +5776,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R20" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S20" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="T20" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="U20" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="V20" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="W20" t="n">
-        <v>2344.380435748108</v>
+        <v>2508.443492195161</v>
       </c>
       <c r="X20" t="n">
-        <v>1970.914677487028</v>
+        <v>2508.443492195161</v>
       </c>
       <c r="Y20" t="n">
-        <v>1954.141365880777</v>
+        <v>2118.304160219349</v>
       </c>
     </row>
     <row r="21">
@@ -5807,25 +5807,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C21" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D21" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747043</v>
       </c>
       <c r="E21" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692488</v>
       </c>
       <c r="F21" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G21" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102423999</v>
       </c>
       <c r="H21" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673417</v>
       </c>
       <c r="I21" t="n">
         <v>53.94298182036444</v>
@@ -5834,22 +5834,22 @@
         <v>53.94298182036444</v>
       </c>
       <c r="K21" t="n">
-        <v>309.1903022614629</v>
+        <v>266.2060027641985</v>
       </c>
       <c r="L21" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598704</v>
       </c>
       <c r="M21" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N21" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517452</v>
       </c>
       <c r="O21" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537796</v>
       </c>
       <c r="P21" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152625</v>
       </c>
       <c r="Q21" t="n">
         <v>2697.149091018222</v>
@@ -5858,22 +5858,22 @@
         <v>2646.935720430047</v>
       </c>
       <c r="S21" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T21" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U21" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V21" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W21" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X21" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y21" t="n">
         <v>1156.713312237151</v>
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>579.9823256406182</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="C22" t="n">
-        <v>579.9823256406182</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="D22" t="n">
-        <v>579.9823256406182</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="E22" t="n">
-        <v>432.0692320582251</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F22" t="n">
-        <v>380.6911546495019</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G22" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H22" t="n">
         <v>53.94298182036444</v>
@@ -5934,28 +5934,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R22" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S22" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T22" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U22" t="n">
-        <v>579.9823256406182</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V22" t="n">
-        <v>579.9823256406182</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="W22" t="n">
-        <v>579.9823256406182</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="X22" t="n">
-        <v>579.9823256406182</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="Y22" t="n">
-        <v>579.9823256406182</v>
+        <v>149.5382038240415</v>
       </c>
     </row>
     <row r="23">
@@ -5965,10 +5965,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1865.381229508782</v>
+        <v>1626.94664591678</v>
       </c>
       <c r="C23" t="n">
-        <v>1496.41871256837</v>
+        <v>1626.94664591678</v>
       </c>
       <c r="D23" t="n">
         <v>1268.680947310029</v>
@@ -6022,19 +6022,19 @@
         <v>2642.120401548715</v>
       </c>
       <c r="U23" t="n">
-        <v>2642.120401548715</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V23" t="n">
-        <v>2642.120401548715</v>
+        <v>2057.295728843236</v>
       </c>
       <c r="W23" t="n">
-        <v>2642.120401548715</v>
+        <v>1704.527073573122</v>
       </c>
       <c r="X23" t="n">
-        <v>2642.120401548715</v>
+        <v>1704.527073573122</v>
       </c>
       <c r="Y23" t="n">
-        <v>2251.981069572903</v>
+        <v>1704.527073573122</v>
       </c>
     </row>
     <row r="24">
@@ -6044,22 +6044,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C24" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D24" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747043</v>
       </c>
       <c r="E24" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692488</v>
       </c>
       <c r="F24" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G24" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102423999</v>
       </c>
       <c r="H24" t="n">
         <v>115.9856282673424</v>
@@ -6086,31 +6086,31 @@
         <v>2231.815593035061</v>
       </c>
       <c r="P24" t="n">
-        <v>2525.076107152625</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q24" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R24" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S24" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T24" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U24" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V24" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W24" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X24" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y24" t="n">
         <v>1156.713312237151</v>
@@ -6180,16 +6180,16 @@
         <v>728.1289842064342</v>
       </c>
       <c r="U25" t="n">
-        <v>728.1289842064342</v>
+        <v>598.0446400632119</v>
       </c>
       <c r="V25" t="n">
-        <v>728.1289842064342</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W25" t="n">
-        <v>502.7251118619119</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="X25" t="n">
-        <v>274.7355609638946</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="Y25" t="n">
         <v>53.94298182036444</v>
@@ -6202,16 +6202,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>987.3573795552941</v>
+        <v>934.637173372437</v>
       </c>
       <c r="C26" t="n">
-        <v>618.3948626148824</v>
+        <v>565.6746564320254</v>
       </c>
       <c r="D26" t="n">
-        <v>618.3948626148824</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="E26" t="n">
-        <v>618.3948626148824</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="F26" t="n">
         <v>207.4089578252748</v>
@@ -6229,10 +6229,10 @@
         <v>169.7108380533142</v>
       </c>
       <c r="K26" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733125</v>
       </c>
       <c r="L26" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M26" t="n">
         <v>1362.238747280443</v>
@@ -6250,28 +6250,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R26" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S26" t="n">
-        <v>2520.971603332393</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T26" t="n">
-        <v>2302.336936304455</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U26" t="n">
-        <v>2302.336936304455</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V26" t="n">
-        <v>2103.7311250623</v>
+        <v>2057.295728843236</v>
       </c>
       <c r="W26" t="n">
-        <v>1750.962469792186</v>
+        <v>2057.295728843236</v>
       </c>
       <c r="X26" t="n">
-        <v>1377.496711531106</v>
+        <v>1683.829970582156</v>
       </c>
       <c r="Y26" t="n">
-        <v>987.3573795552941</v>
+        <v>1321.237013436559</v>
       </c>
     </row>
     <row r="27">
@@ -6305,25 +6305,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J27" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K27" t="n">
-        <v>384.4474646615928</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L27" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M27" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N27" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O27" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P27" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q27" t="n">
         <v>2697.149091018222</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>699.7439769897445</v>
+        <v>257.0633493392339</v>
       </c>
       <c r="C28" t="n">
-        <v>530.8077940618376</v>
+        <v>257.0633493392339</v>
       </c>
       <c r="D28" t="n">
-        <v>380.6911546495019</v>
+        <v>257.0633493392339</v>
       </c>
       <c r="E28" t="n">
-        <v>380.6911546495019</v>
+        <v>109.1502557568408</v>
       </c>
       <c r="F28" t="n">
-        <v>380.6911546495019</v>
+        <v>109.1502557568408</v>
       </c>
       <c r="G28" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H28" t="n">
         <v>53.94298182036445</v>
@@ -6423,13 +6423,13 @@
         <v>728.1289842064342</v>
       </c>
       <c r="W28" t="n">
-        <v>728.1289842064342</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="X28" t="n">
-        <v>728.1289842064342</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="Y28" t="n">
-        <v>728.1289842064342</v>
+        <v>438.7118141694736</v>
       </c>
     </row>
     <row r="29">
@@ -6439,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1546.944160717209</v>
+        <v>1386.090004781549</v>
       </c>
       <c r="C29" t="n">
-        <v>1177.981643776797</v>
+        <v>1017.127487841138</v>
       </c>
       <c r="D29" t="n">
-        <v>1177.981643776797</v>
+        <v>1017.127487841138</v>
       </c>
       <c r="E29" t="n">
-        <v>792.1933911785532</v>
+        <v>631.3392352428932</v>
       </c>
       <c r="F29" t="n">
-        <v>381.2074863889456</v>
+        <v>631.3392352428932</v>
       </c>
       <c r="G29" t="n">
-        <v>53.94298182036445</v>
+        <v>213.3754271410801</v>
       </c>
       <c r="H29" t="n">
         <v>53.94298182036445</v>
@@ -6469,7 +6469,7 @@
         <v>463.9616490733129</v>
       </c>
       <c r="L29" t="n">
-        <v>881.2824271224081</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M29" t="n">
         <v>1362.238747280443</v>
@@ -6496,19 +6496,19 @@
         <v>2697.149091018222</v>
       </c>
       <c r="U29" t="n">
-        <v>2697.149091018222</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="V29" t="n">
-        <v>2697.149091018222</v>
+        <v>2112.324418312743</v>
       </c>
       <c r="W29" t="n">
-        <v>2697.149091018222</v>
+        <v>1759.555763042629</v>
       </c>
       <c r="X29" t="n">
-        <v>2323.683332757143</v>
+        <v>1386.090004781549</v>
       </c>
       <c r="Y29" t="n">
-        <v>1933.544000781331</v>
+        <v>1386.090004781549</v>
       </c>
     </row>
     <row r="30">
@@ -6518,25 +6518,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C30" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D30" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E30" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F30" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G30" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H30" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I30" t="n">
         <v>53.94298182036445</v>
@@ -6548,7 +6548,7 @@
         <v>309.190302261463</v>
       </c>
       <c r="L30" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M30" t="n">
         <v>1194.968834417902</v>
@@ -6572,13 +6572,13 @@
         <v>2488.762748073963</v>
       </c>
       <c r="T30" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U30" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V30" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W30" t="n">
         <v>1572.325111207638</v>
@@ -6597,10 +6597,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>149.5382038240415</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C31" t="n">
-        <v>149.5382038240415</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D31" t="n">
         <v>53.94298182036445</v>
@@ -6657,16 +6657,16 @@
         <v>438.9553738610022</v>
       </c>
       <c r="V31" t="n">
-        <v>438.9553738610022</v>
+        <v>184.2708856551153</v>
       </c>
       <c r="W31" t="n">
-        <v>149.5382038240415</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X31" t="n">
-        <v>149.5382038240415</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y31" t="n">
-        <v>149.5382038240415</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="32">
@@ -6676,46 +6676,46 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1320.425425970681</v>
+        <v>1369.416431066817</v>
       </c>
       <c r="C32" t="n">
-        <v>951.4629090302694</v>
+        <v>1000.453914126405</v>
       </c>
       <c r="D32" t="n">
-        <v>593.197210423519</v>
+        <v>882.8926947117851</v>
       </c>
       <c r="E32" t="n">
-        <v>207.4089578252748</v>
+        <v>882.8926947117851</v>
       </c>
       <c r="F32" t="n">
-        <v>207.4089578252748</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G32" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H32" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I32" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J32" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K32" t="n">
-        <v>463.9616490733131</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L32" t="n">
-        <v>881.2824271224082</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M32" t="n">
-        <v>1362.238747280444</v>
+        <v>1362.238747280443</v>
       </c>
       <c r="N32" t="n">
-        <v>1836.345445977176</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O32" t="n">
-        <v>2238.84331964269</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P32" t="n">
         <v>2544.691559791252</v>
@@ -6733,19 +6733,19 @@
         <v>2697.149091018222</v>
       </c>
       <c r="U32" t="n">
-        <v>2697.149091018222</v>
+        <v>2443.387305656313</v>
       </c>
       <c r="V32" t="n">
-        <v>2436.799171477687</v>
+        <v>2112.324418312743</v>
       </c>
       <c r="W32" t="n">
-        <v>2084.030516207573</v>
+        <v>1759.555763042629</v>
       </c>
       <c r="X32" t="n">
-        <v>1710.564757946493</v>
+        <v>1759.555763042629</v>
       </c>
       <c r="Y32" t="n">
-        <v>1320.425425970681</v>
+        <v>1369.416431066817</v>
       </c>
     </row>
     <row r="33">
@@ -6755,49 +6755,49 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C33" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D33" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747043</v>
       </c>
       <c r="E33" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692488</v>
       </c>
       <c r="F33" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G33" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H33" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I33" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J33" t="n">
-        <v>129.2001442204944</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K33" t="n">
-        <v>384.447464661593</v>
+        <v>266.2060027641985</v>
       </c>
       <c r="L33" t="n">
-        <v>789.0633827572651</v>
+        <v>670.8219208598704</v>
       </c>
       <c r="M33" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N33" t="n">
-        <v>1866.936832414848</v>
+        <v>1748.695370517452</v>
       </c>
       <c r="O33" t="n">
-        <v>2307.072755435192</v>
+        <v>2188.831293537796</v>
       </c>
       <c r="P33" t="n">
-        <v>2643.317569050021</v>
+        <v>2525.076107152625</v>
       </c>
       <c r="Q33" t="n">
         <v>2697.149091018222</v>
@@ -6818,10 +6818,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W33" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X33" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y33" t="n">
         <v>1156.713312237151</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>53.94298182036445</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="C34" t="n">
-        <v>53.94298182036445</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="D34" t="n">
-        <v>53.94298182036445</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="E34" t="n">
-        <v>53.94298182036445</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="F34" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G34" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H34" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I34" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J34" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K34" t="n">
-        <v>110.2451748866327</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L34" t="n">
-        <v>237.8190324477912</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M34" t="n">
-        <v>382.7169011658212</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N34" t="n">
-        <v>529.6040388502504</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O34" t="n">
-        <v>649.2617893594906</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P34" t="n">
-        <v>728.1289842064349</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q34" t="n">
-        <v>728.1289842064349</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R34" t="n">
-        <v>728.1289842064349</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S34" t="n">
-        <v>728.1289842064349</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T34" t="n">
-        <v>728.1289842064349</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U34" t="n">
-        <v>728.1289842064349</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V34" t="n">
-        <v>728.1289842064349</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="W34" t="n">
-        <v>684.3735766921516</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="X34" t="n">
-        <v>456.3840257941342</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="Y34" t="n">
-        <v>235.5914466506042</v>
+        <v>149.5382038240415</v>
       </c>
     </row>
     <row r="35">
@@ -6913,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1675.109392681467</v>
+        <v>1626.94664591678</v>
       </c>
       <c r="C35" t="n">
-        <v>1306.146875741055</v>
+        <v>1626.94664591678</v>
       </c>
       <c r="D35" t="n">
-        <v>1306.146875741055</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E35" t="n">
-        <v>920.358623142811</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F35" t="n">
-        <v>509.3727183532034</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G35" t="n">
-        <v>91.4089102513903</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H35" t="n">
         <v>53.94298182036445</v>
@@ -6937,52 +6937,52 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J35" t="n">
-        <v>169.7108380533169</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K35" t="n">
-        <v>463.9616490733151</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L35" t="n">
-        <v>881.2824271224096</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M35" t="n">
-        <v>1362.238747280445</v>
+        <v>1362.238747280443</v>
       </c>
       <c r="N35" t="n">
-        <v>1836.345445977176</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O35" t="n">
-        <v>2238.84331964269</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P35" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q35" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R35" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S35" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T35" t="n">
-        <v>2302.336936304455</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U35" t="n">
-        <v>2048.575150942547</v>
+        <v>2017.085977892592</v>
       </c>
       <c r="V35" t="n">
-        <v>2048.575150942547</v>
+        <v>2017.085977892592</v>
       </c>
       <c r="W35" t="n">
-        <v>2048.575150942547</v>
+        <v>2017.085977892592</v>
       </c>
       <c r="X35" t="n">
-        <v>1675.109392681467</v>
+        <v>2017.085977892592</v>
       </c>
       <c r="Y35" t="n">
-        <v>1675.109392681467</v>
+        <v>1626.94664591678</v>
       </c>
     </row>
     <row r="36">
@@ -6998,16 +6998,16 @@
         <v>814.044945935956</v>
       </c>
       <c r="D36" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E36" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F36" t="n">
         <v>359.3385232961342</v>
       </c>
       <c r="G36" t="n">
-        <v>221.4284102424004</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H36" t="n">
         <v>115.9856282673422</v>
@@ -7016,25 +7016,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J36" t="n">
-        <v>129.2001442204942</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K36" t="n">
-        <v>384.4474646615924</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L36" t="n">
-        <v>789.063382757264</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M36" t="n">
-        <v>1313.210296315294</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N36" t="n">
-        <v>1866.936832414845</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O36" t="n">
-        <v>2307.072755435189</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P36" t="n">
-        <v>2643.317569050017</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q36" t="n">
         <v>2697.149091018222</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C37" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D37" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E37" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F37" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G37" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H37" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I37" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J37" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K37" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L37" t="n">
-        <v>2206.839139259579</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M37" t="n">
-        <v>2351.737007977609</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N37" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O37" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P37" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q37" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R37" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S37" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T37" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U37" t="n">
-        <v>2697.149091018222</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V37" t="n">
-        <v>2442.464602812336</v>
+        <v>184.2708856551153</v>
       </c>
       <c r="W37" t="n">
-        <v>2153.047432775375</v>
+        <v>184.2708856551153</v>
       </c>
       <c r="X37" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y37" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="38">
@@ -7150,43 +7150,43 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>546.109828622464</v>
+        <v>1626.94664591678</v>
       </c>
       <c r="C38" t="n">
-        <v>546.109828622464</v>
+        <v>1626.94664591678</v>
       </c>
       <c r="D38" t="n">
-        <v>187.8441300157135</v>
+        <v>1268.680947310029</v>
       </c>
       <c r="E38" t="n">
-        <v>187.8441300157135</v>
+        <v>882.8926947117851</v>
       </c>
       <c r="F38" t="n">
-        <v>187.8441300157135</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G38" t="n">
-        <v>187.8441300157135</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H38" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I38" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J38" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K38" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L38" t="n">
-        <v>881.2824271224081</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M38" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N38" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O38" t="n">
         <v>2238.843319642689</v>
@@ -7198,28 +7198,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R38" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S38" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="T38" t="n">
-        <v>2247.308246834948</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="U38" t="n">
-        <v>1993.54646147304</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="V38" t="n">
-        <v>1662.48357412947</v>
+        <v>2311.057514205144</v>
       </c>
       <c r="W38" t="n">
-        <v>1309.714918859356</v>
+        <v>2311.057514205144</v>
       </c>
       <c r="X38" t="n">
-        <v>936.2491605982757</v>
+        <v>1937.591755944065</v>
       </c>
       <c r="Y38" t="n">
-        <v>546.109828622464</v>
+        <v>1626.94664591678</v>
       </c>
     </row>
     <row r="39">
@@ -7229,19 +7229,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C39" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D39" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E39" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F39" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G39" t="n">
         <v>221.4284102424006</v>
@@ -7250,46 +7250,46 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I39" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J39" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K39" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L39" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M39" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N39" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517452</v>
       </c>
       <c r="O39" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537796</v>
       </c>
       <c r="P39" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152625</v>
       </c>
       <c r="Q39" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R39" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S39" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T39" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U39" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V39" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W39" t="n">
         <v>1572.325111207638</v>
@@ -7308,31 +7308,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>279.3468541648867</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="C40" t="n">
-        <v>279.3468541648867</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="D40" t="n">
-        <v>279.3468541648867</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E40" t="n">
-        <v>279.3468541648867</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F40" t="n">
-        <v>279.3468541648867</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G40" t="n">
-        <v>279.3468541648867</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H40" t="n">
-        <v>121.5984815974169</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I40" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J40" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K40" t="n">
         <v>110.2451748866326</v>
@@ -7365,19 +7365,19 @@
         <v>728.1289842064342</v>
       </c>
       <c r="U40" t="n">
-        <v>728.1289842064342</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V40" t="n">
-        <v>728.1289842064342</v>
+        <v>184.2708856551153</v>
       </c>
       <c r="W40" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="X40" t="n">
-        <v>500.1394333084169</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="Y40" t="n">
-        <v>279.3468541648867</v>
+        <v>53.94298182036444</v>
       </c>
     </row>
     <row r="41">
@@ -7387,43 +7387,43 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1540.921096014692</v>
+        <v>882.8926947117851</v>
       </c>
       <c r="C41" t="n">
-        <v>1171.95857907428</v>
+        <v>882.8926947117851</v>
       </c>
       <c r="D41" t="n">
-        <v>1171.95857907428</v>
+        <v>882.8926947117851</v>
       </c>
       <c r="E41" t="n">
-        <v>1036.358670716696</v>
+        <v>882.8926947117851</v>
       </c>
       <c r="F41" t="n">
-        <v>625.3727659270879</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G41" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H41" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I41" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J41" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K41" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L41" t="n">
-        <v>881.2824271224081</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M41" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N41" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O41" t="n">
         <v>2238.843319642689</v>
@@ -7435,28 +7435,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R41" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S41" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="T41" t="n">
-        <v>2478.514423990285</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="U41" t="n">
-        <v>2224.752638628377</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V41" t="n">
-        <v>1893.689751284806</v>
+        <v>2057.295728843236</v>
       </c>
       <c r="W41" t="n">
-        <v>1540.921096014692</v>
+        <v>1704.527073573122</v>
       </c>
       <c r="X41" t="n">
-        <v>1540.921096014692</v>
+        <v>1331.061315312042</v>
       </c>
       <c r="Y41" t="n">
-        <v>1540.921096014692</v>
+        <v>940.9219833362301</v>
       </c>
     </row>
     <row r="42">
@@ -7466,28 +7466,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170821</v>
       </c>
       <c r="C42" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359551</v>
       </c>
       <c r="D42" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747037</v>
       </c>
       <c r="E42" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692481</v>
       </c>
       <c r="F42" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961333</v>
       </c>
       <c r="G42" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102423999</v>
       </c>
       <c r="H42" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I42" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J42" t="n">
         <v>129.2001442204943</v>
@@ -7502,13 +7502,13 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N42" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517452</v>
       </c>
       <c r="O42" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537796</v>
       </c>
       <c r="P42" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152625</v>
       </c>
       <c r="Q42" t="n">
         <v>2697.149091018222</v>
@@ -7517,25 +7517,25 @@
         <v>2646.935720430047</v>
       </c>
       <c r="S42" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073962</v>
       </c>
       <c r="T42" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196741</v>
       </c>
       <c r="U42" t="n">
-        <v>2061.714576167582</v>
+        <v>2061.714576167581</v>
       </c>
       <c r="V42" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.562467935838</v>
       </c>
       <c r="W42" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X42" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y42" t="n">
-        <v>1156.713312237151</v>
+        <v>1156.71331223715</v>
       </c>
     </row>
     <row r="43">
@@ -7545,31 +7545,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>81.59249510651588</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="C43" t="n">
-        <v>81.59249510651588</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="D43" t="n">
-        <v>81.59249510651588</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E43" t="n">
-        <v>81.59249510651588</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F43" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G43" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H43" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I43" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J43" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K43" t="n">
         <v>110.2451748866326</v>
@@ -7590,31 +7590,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q43" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R43" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S43" t="n">
-        <v>336.2769833124028</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T43" t="n">
-        <v>336.2769833124028</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U43" t="n">
-        <v>336.2769833124028</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V43" t="n">
-        <v>81.59249510651588</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="W43" t="n">
-        <v>81.59249510651588</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="X43" t="n">
-        <v>81.59249510651588</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="Y43" t="n">
-        <v>81.59249510651588</v>
+        <v>149.5382038240415</v>
       </c>
     </row>
     <row r="44">
@@ -7624,37 +7624,37 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1577.945354755378</v>
+        <v>1526.329725433337</v>
       </c>
       <c r="C44" t="n">
-        <v>1208.982837814967</v>
+        <v>1157.367208492925</v>
       </c>
       <c r="D44" t="n">
-        <v>850.7171392082162</v>
+        <v>799.1015098861747</v>
       </c>
       <c r="E44" t="n">
-        <v>464.928886609972</v>
+        <v>799.1015098861747</v>
       </c>
       <c r="F44" t="n">
-        <v>53.94298182036445</v>
+        <v>799.1015098861747</v>
       </c>
       <c r="G44" t="n">
-        <v>53.94298182036445</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H44" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I44" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J44" t="n">
-        <v>169.710838053314</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K44" t="n">
-        <v>463.9616490733125</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L44" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M44" t="n">
         <v>1362.238747280443</v>
@@ -7672,28 +7672,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R44" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S44" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="T44" t="n">
-        <v>2354.684526795312</v>
+        <v>2463.92305340893</v>
       </c>
       <c r="U44" t="n">
-        <v>2354.684526795312</v>
+        <v>2210.161268047022</v>
       </c>
       <c r="V44" t="n">
-        <v>2354.684526795312</v>
+        <v>1879.098380703451</v>
       </c>
       <c r="W44" t="n">
-        <v>2354.684526795312</v>
+        <v>1526.329725433337</v>
       </c>
       <c r="X44" t="n">
-        <v>2354.684526795312</v>
+        <v>1526.329725433337</v>
       </c>
       <c r="Y44" t="n">
-        <v>1964.5451948195</v>
+        <v>1526.329725433337</v>
       </c>
     </row>
     <row r="45">
@@ -7703,49 +7703,49 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C45" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D45" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747043</v>
       </c>
       <c r="E45" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692488</v>
       </c>
       <c r="F45" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G45" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102423999</v>
       </c>
       <c r="H45" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673417</v>
       </c>
       <c r="I45" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J45" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K45" t="n">
-        <v>309.190302261463</v>
+        <v>309.1903022614629</v>
       </c>
       <c r="L45" t="n">
         <v>713.8062203571349</v>
       </c>
       <c r="M45" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N45" t="n">
-        <v>1748.695370517453</v>
+        <v>1748.695370517452</v>
       </c>
       <c r="O45" t="n">
-        <v>2188.831293537797</v>
+        <v>2188.831293537796</v>
       </c>
       <c r="P45" t="n">
-        <v>2525.076107152626</v>
+        <v>2525.076107152625</v>
       </c>
       <c r="Q45" t="n">
         <v>2697.149091018222</v>
@@ -7766,10 +7766,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W45" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X45" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y45" t="n">
         <v>1156.713312237151</v>
@@ -7782,31 +7782,31 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>211.6471865296039</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="C46" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="D46" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E46" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F46" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G46" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H46" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I46" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J46" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K46" t="n">
         <v>110.2451748866326</v>
@@ -7845,13 +7845,13 @@
         <v>211.6471865296039</v>
       </c>
       <c r="W46" t="n">
-        <v>211.6471865296039</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="X46" t="n">
-        <v>211.6471865296039</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="Y46" t="n">
-        <v>211.6471865296039</v>
+        <v>53.94298182036444</v>
       </c>
     </row>
   </sheetData>
@@ -7981,7 +7981,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L2" t="n">
         <v>417.6612145504504</v>
@@ -8060,10 +8060,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M3" t="n">
         <v>383.1483227996774</v>
@@ -8072,13 +8072,13 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O3" t="n">
-        <v>185.8815939223662</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P3" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>186.7697506723097</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8303,19 +8303,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>368.5691090902119</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N6" t="n">
-        <v>372.3560009609923</v>
+        <v>186.8580120236956</v>
       </c>
       <c r="O6" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8768,10 +8768,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>119.7207117878867</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>125.6774978810001</v>
       </c>
       <c r="L12" t="n">
         <v>122.1984598562864</v>
@@ -8780,7 +8780,7 @@
         <v>399.2039605324505</v>
       </c>
       <c r="N12" t="n">
-        <v>236.1308877972191</v>
+        <v>387.9064735273547</v>
       </c>
       <c r="O12" t="n">
         <v>393.8623192767295</v>
@@ -8789,7 +8789,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>203.4597646898142</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9005,10 +9005,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>84.40768042974383</v>
+        <v>84.40768042974389</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>65.32190271305328</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
@@ -9017,13 +9017,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>455.4620425572114</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>48.21631822333877</v>
+        <v>223.4793207365215</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
@@ -9260,10 +9260,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415591</v>
       </c>
       <c r="Q18" t="n">
-        <v>90.64146763747075</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9482,7 +9482,7 @@
         <v>50.07369958270195</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719075</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
@@ -9500,7 +9500,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>166.6588033951776</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9734,10 +9734,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>275.044284299266</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9877,7 +9877,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711646</v>
       </c>
       <c r="L26" t="n">
         <v>417.6612145504504</v>
@@ -9892,7 +9892,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P26" t="n">
-        <v>321.7987081714828</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
         <v>212.3149906599047</v>
@@ -9953,10 +9953,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719079</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
@@ -9974,7 +9974,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>90.64146763747122</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10196,10 +10196,10 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>327.4218609627885</v>
       </c>
       <c r="M30" t="n">
-        <v>422.2865794093292</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
         <v>479.3423743435536</v>
@@ -10366,7 +10366,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
-        <v>321.7987081714811</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
         <v>212.3149906599047</v>
@@ -10430,7 +10430,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142005</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
@@ -10448,7 +10448,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>90.64146763747019</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10585,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720768</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
         <v>324.1454125711647</v>
@@ -10664,7 +10664,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
@@ -10685,7 +10685,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>90.64146763747368</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10901,7 +10901,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
@@ -10910,7 +10910,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516219</v>
       </c>
       <c r="N39" t="n">
         <v>479.3423743435536</v>
@@ -10922,7 +10922,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11150,7 +11150,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451751</v>
       </c>
       <c r="O42" t="n">
         <v>393.8623192767295</v>
@@ -11159,7 +11159,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>90.64146763747122</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11296,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
@@ -11384,10 +11384,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>422.2865794093292</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
-        <v>479.3423743435536</v>
+        <v>435.9238900028821</v>
       </c>
       <c r="O45" t="n">
         <v>393.8623192767295</v>
@@ -22555,16 +22555,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>140.9160811946027</v>
+        <v>169.6449844288198</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G2" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H2" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I2" t="n">
         <v>210.4758895704059</v>
@@ -22603,13 +22603,13 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>136.9555830739709</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -22625,25 +22625,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>102.3971045641248</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>117.6460565997561</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
         <v>89.39663285141508</v>
@@ -22679,19 +22679,19 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -22746,13 +22746,13 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>132.9899077786023</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S4" t="n">
         <v>224.0165980369723</v>
@@ -22767,7 +22767,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -22789,10 +22789,10 @@
         <v>124.2586028933485</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -22807,7 +22807,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -22828,16 +22828,16 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>140.6346519250378</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>20.80116313523413</v>
       </c>
       <c r="U5" t="n">
         <v>251.3456529078365</v>
@@ -22852,7 +22852,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -22865,25 +22865,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>33.22115816270494</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>78.37935568991773</v>
       </c>
       <c r="J6" t="n">
         <v>0.7465913262578567</v>
@@ -22910,10 +22910,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>200.1647286948216</v>
@@ -22925,7 +22925,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -22962,13 +22962,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
-        <v>140.6136200195524</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -23001,7 +23001,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>121.6721164735665</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -23026,22 +23026,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>352.8735455476468</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H8" t="n">
         <v>98.46051323810809</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
         <v>11.94928935461252</v>
@@ -23068,16 +23068,16 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>223.0958495641314</v>
+        <v>128.6853625704253</v>
       </c>
       <c r="U8" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -23102,28 +23102,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>74.23467414969659</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>99.28917821570853</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23147,7 +23147,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23156,10 +23156,10 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
         <v>251.6949831609196</v>
@@ -23199,7 +23199,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
-        <v>22.26350734189026</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
         <v>93.35918011667277</v>
@@ -23238,7 +23238,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -23263,19 +23263,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>333.923930121617</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>105.7738563699063</v>
       </c>
       <c r="F11" t="n">
-        <v>130.719532039356</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>139.005434824964</v>
       </c>
       <c r="H11" t="n">
-        <v>61.87643319194535</v>
+        <v>338.0329468943008</v>
       </c>
       <c r="I11" t="n">
         <v>205.0481221176458</v>
@@ -23305,13 +23305,13 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>141.0252816852793</v>
       </c>
       <c r="S11" t="n">
         <v>205.8118405263978</v>
       </c>
       <c r="T11" t="n">
-        <v>120.2661701862133</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>251.3343897888113</v>
@@ -23323,7 +23323,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>93.57458697611355</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -23336,7 +23336,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>166.5331836498673</v>
+        <v>97.83304425246973</v>
       </c>
       <c r="C12" t="n">
         <v>172.7084989883157</v>
@@ -23357,7 +23357,7 @@
         <v>111.5079271034444</v>
       </c>
       <c r="I12" t="n">
-        <v>86.80307722268739</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23393,7 +23393,7 @@
         <v>199.8611009721718</v>
       </c>
       <c r="U12" t="n">
-        <v>50.1794791572195</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -23405,7 +23405,7 @@
         <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="13">
@@ -23430,10 +23430,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>167.9278262653587</v>
       </c>
       <c r="H13" t="n">
-        <v>154.462316415358</v>
+        <v>161.6656840978772</v>
       </c>
       <c r="I13" t="n">
         <v>153.551289182031</v>
@@ -23469,7 +23469,7 @@
         <v>222.9160118599466</v>
       </c>
       <c r="T13" t="n">
-        <v>227.6757534850358</v>
+        <v>52.54455953715788</v>
       </c>
       <c r="U13" t="n">
         <v>286.3155846423218</v>
@@ -23494,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -23503,16 +23503,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>330.8786841952548</v>
+        <v>8.453940867156803</v>
       </c>
       <c r="I14" t="n">
         <v>178.1163791463315</v>
@@ -23542,7 +23542,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>97.14353343492398</v>
+        <v>97.14353343492407</v>
       </c>
       <c r="S14" t="n">
         <v>189.8931039215389</v>
@@ -23557,10 +23557,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>104.1379627834493</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23573,16 +23573,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>54.92679169691986</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>169.147068804253</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -23594,7 +23594,7 @@
         <v>107.898099562911</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>73.93425515493655</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23627,7 +23627,7 @@
         <v>163.3413660663109</v>
       </c>
       <c r="T15" t="n">
-        <v>198.35454715303</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
@@ -23673,10 +23673,10 @@
         <v>158.8796654153679</v>
       </c>
       <c r="I16" t="n">
-        <v>8.333262912574526</v>
+        <v>144.1278231270812</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>66.73999539781629</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23697,10 +23697,10 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>54.6345505880211</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>160.3641786191054</v>
       </c>
       <c r="S16" t="n">
         <v>217.4550733994452</v>
@@ -23712,13 +23712,13 @@
         <v>286.2984925031653</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>60.3140138934163</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23731,7 +23731,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>322.7455796081784</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -23740,19 +23740,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>112.7025231879166</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23779,10 +23779,10 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>216.4483203576578</v>
@@ -23797,7 +23797,7 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23858,7 +23858,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>8.100187187665142e-13</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -23889,13 +23889,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>53.28523739465275</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23946,10 +23946,10 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V19" t="n">
-        <v>96.0104806616809</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -23971,10 +23971,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -23989,7 +23989,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24016,7 +24016,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>174.4157128089715</v>
@@ -24031,13 +24031,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>216.9008284573941</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>369.6323601658652</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24098,7 +24098,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>9.947598300641403e-13</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
@@ -24135,16 +24135,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>51.79469286292884</v>
       </c>
       <c r="F22" t="n">
-        <v>94.55675138829524</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I22" t="n">
         <v>134.9656217923383</v>
@@ -24174,7 +24174,7 @@
         <v>29.12274995491431</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S22" t="n">
         <v>212.1455389500189</v>
@@ -24183,13 +24183,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -24205,13 +24205,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>305.929218283702</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>129.2226540149257</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -24262,19 +24262,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U23" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -24332,7 +24332,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>8.100187187665142e-13</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -24420,19 +24420,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2818742419777</v>
+        <v>157.4983735401876</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>63.37316471551392</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24442,19 +24442,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
         <v>413.784170020795</v>
@@ -24490,28 +24490,28 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U26" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>131.1325053404009</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>27.27091108191195</v>
       </c>
     </row>
     <row r="27">
@@ -24600,25 +24600,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>151.7308230374145</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>112.6546010619393</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I28" t="n">
         <v>134.9656217923383</v>
@@ -24663,7 +24663,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -24679,7 +24679,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -24691,13 +24691,13 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>89.79231049789962</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>323.9227727643571</v>
+        <v>166.0846518968487</v>
       </c>
       <c r="I29" t="n">
         <v>151.9313162448613</v>
@@ -24736,19 +24736,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U29" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -24843,7 +24843,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>53.97620323457204</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24897,10 +24897,10 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>157.4983735401877</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -24922,22 +24922,22 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>238.2974344002091</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24964,7 +24964,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>54.4784025748116</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S32" t="n">
         <v>174.4157128089715</v>
@@ -24973,16 +24973,16 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U32" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>70.00583812500508</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -25086,7 +25086,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>50.78177823929092</v>
       </c>
       <c r="G34" t="n">
         <v>167.3098022590509</v>
@@ -25098,7 +25098,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J34" t="n">
-        <v>45.19995918853694</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25119,10 +25119,10 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>29.12274995491423</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R34" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S34" t="n">
         <v>212.1455389500189</v>
@@ -25131,19 +25131,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>243.2051448974505</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25156,10 +25156,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -25171,7 +25171,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>286.8315036176416</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I35" t="n">
         <v>151.9313162448613</v>
@@ -25201,7 +25201,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>54.47840257481187</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -25210,7 +25210,7 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>23.30412125535611</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -25219,10 +25219,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25332,10 +25332,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I37" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J37" t="n">
-        <v>45.19995918853708</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25356,7 +25356,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>29.1227499549144</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R37" t="n">
         <v>146.6651919801579</v>
@@ -25368,16 +25368,16 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>96.92615468724773</v>
+        <v>96.68503059263384</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25399,16 +25399,16 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>191.3606360509616</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I38" t="n">
         <v>151.9313162448613</v>
@@ -25441,25 +25441,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>78.69927972904168</v>
       </c>
     </row>
     <row r="39">
@@ -25517,7 +25517,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>8.029132914089132e-13</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -25566,13 +25566,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I40" t="n">
-        <v>113.1866362015934</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25593,7 +25593,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R40" t="n">
         <v>146.6651919801579</v>
@@ -25605,19 +25605,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>157.4983735401877</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25627,16 +25627,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>325.28484592528</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>247.6864607982531</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -25648,7 +25648,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25675,13 +25675,13 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -25693,10 +25693,10 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25791,13 +25791,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>53.97620323457203</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>118.0480298696413</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>167.3098022590509</v>
@@ -25806,10 +25806,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I43" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J43" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25830,25 +25830,25 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T43" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -25864,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -25873,16 +25873,16 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>151.9313162448613</v>
@@ -25915,25 +25915,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T44" t="n">
-        <v>106.3025171607596</v>
+        <v>40.03294569927073</v>
       </c>
       <c r="U44" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -26025,7 +26025,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>11.11965843648076</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26085,7 +26085,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>130.3958356744439</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>482104.1301211516</v>
+        <v>482104.1301211515</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>482104.1301211516</v>
+        <v>482104.1301211515</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>511961.5724287872</v>
+        <v>511961.5724287874</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>666195.3680227562</v>
+        <v>666195.368022756</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>816143.6851837529</v>
+        <v>816143.6851837528</v>
       </c>
     </row>
     <row r="8">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>816143.6851837528</v>
+        <v>816143.6851837529</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>816143.685183753</v>
+        <v>816143.6851837529</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>816143.685183753</v>
+        <v>816143.6851837529</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>816143.6851837529</v>
+        <v>816143.6851837528</v>
       </c>
     </row>
   </sheetData>
@@ -26325,19 +26325,19 @@
         <v>141745.4664845208</v>
       </c>
       <c r="F2" t="n">
-        <v>187164.7872550203</v>
+        <v>187164.7872550202</v>
       </c>
       <c r="G2" t="n">
-        <v>231322.0880126061</v>
+        <v>231322.088012606</v>
       </c>
       <c r="H2" t="n">
         <v>231322.0880126061</v>
       </c>
       <c r="I2" t="n">
-        <v>231322.088012606</v>
+        <v>231322.0880126061</v>
       </c>
       <c r="J2" t="n">
-        <v>231322.0880126061</v>
+        <v>231322.0880126062</v>
       </c>
       <c r="K2" t="n">
         <v>231322.0880126061</v>
@@ -26377,10 +26377,10 @@
         <v>38628.88112923565</v>
       </c>
       <c r="F3" t="n">
-        <v>195194.8921689318</v>
+        <v>195194.8921689315</v>
       </c>
       <c r="G3" t="n">
-        <v>185152.0893328033</v>
+        <v>185152.0893328036</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26401,10 +26401,10 @@
         <v>8757.582995213648</v>
       </c>
       <c r="N3" t="n">
-        <v>49441.87186138683</v>
+        <v>49441.87186138636</v>
       </c>
       <c r="O3" t="n">
-        <v>47231.86264112664</v>
+        <v>47231.86264112672</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26447,10 +26447,10 @@
         <v>35944.74664026682</v>
       </c>
       <c r="L4" t="n">
-        <v>35944.74664026681</v>
+        <v>35944.74664026682</v>
       </c>
       <c r="M4" t="n">
-        <v>35944.74664026685</v>
+        <v>35944.74664026682</v>
       </c>
       <c r="N4" t="n">
         <v>35944.74664026682</v>
@@ -26481,7 +26481,7 @@
         <v>17553.77951678015</v>
       </c>
       <c r="F5" t="n">
-        <v>33615.28060221569</v>
+        <v>33615.28060221567</v>
       </c>
       <c r="G5" t="n">
         <v>49231.47806340946</v>
@@ -26499,10 +26499,10 @@
         <v>49231.47806340946</v>
       </c>
       <c r="L5" t="n">
-        <v>49231.47806340948</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="M5" t="n">
-        <v>49231.47806340945</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="N5" t="n">
         <v>49231.47806340946</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-29772.00905450117</v>
+        <v>-41990.01967454163</v>
       </c>
       <c r="C6" t="n">
-        <v>50997.42247704653</v>
+        <v>38779.4118570061</v>
       </c>
       <c r="D6" t="n">
-        <v>50997.42247704653</v>
+        <v>38779.41185700607</v>
       </c>
       <c r="E6" t="n">
-        <v>51785.64537707442</v>
+        <v>40118.69278574994</v>
       </c>
       <c r="F6" t="n">
-        <v>-76521.30929377011</v>
+        <v>-85349.55433693813</v>
       </c>
       <c r="G6" t="n">
-        <v>-39006.22602387347</v>
+        <v>-45074.63976969311</v>
       </c>
       <c r="H6" t="n">
-        <v>146145.8633089298</v>
+        <v>140077.4495631106</v>
       </c>
       <c r="I6" t="n">
-        <v>146145.8633089298</v>
+        <v>140077.4495631106</v>
       </c>
       <c r="J6" t="n">
-        <v>83085.92070982359</v>
+        <v>77017.50696400442</v>
       </c>
       <c r="K6" t="n">
-        <v>146145.8633089298</v>
+        <v>140077.4495631106</v>
       </c>
       <c r="L6" t="n">
-        <v>146145.8633089298</v>
+        <v>140077.4495631107</v>
       </c>
       <c r="M6" t="n">
-        <v>137388.2803137162</v>
+        <v>131319.8665678969</v>
       </c>
       <c r="N6" t="n">
-        <v>96703.99144754293</v>
+        <v>90635.57770172425</v>
       </c>
       <c r="O6" t="n">
-        <v>98914.00066780318</v>
+        <v>92845.58692198392</v>
       </c>
       <c r="P6" t="n">
-        <v>146145.8633089298</v>
+        <v>140077.4495631106</v>
       </c>
     </row>
   </sheetData>
@@ -26749,7 +26749,7 @@
         <v>35.02126071912533</v>
       </c>
       <c r="F3" t="n">
-        <v>208.791342143532</v>
+        <v>208.7913421435317</v>
       </c>
       <c r="G3" t="n">
         <v>377.7436642170866</v>
@@ -26767,10 +26767,10 @@
         <v>377.7436642170866</v>
       </c>
       <c r="L3" t="n">
-        <v>377.7436642170871</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="M3" t="n">
-        <v>377.743664217086</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="N3" t="n">
         <v>377.7436642170866</v>
@@ -26801,7 +26801,7 @@
         <v>276.1565137023555</v>
       </c>
       <c r="F4" t="n">
-        <v>478.0202194652418</v>
+        <v>478.0202194652414</v>
       </c>
       <c r="G4" t="n">
         <v>674.2872727545555</v>
@@ -26819,19 +26819,19 @@
         <v>674.2872727545556</v>
       </c>
       <c r="L4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="M4" t="n">
         <v>674.2872727545556</v>
       </c>
       <c r="N4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="O4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="P4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
     </row>
   </sheetData>
@@ -26971,10 +26971,10 @@
         <v>35.02126071912533</v>
       </c>
       <c r="F3" t="n">
-        <v>173.7700814244066</v>
+        <v>173.7700814244063</v>
       </c>
       <c r="G3" t="n">
-        <v>168.9523220735546</v>
+        <v>168.9523220735549</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26995,7 +26995,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -27023,10 +27023,10 @@
         <v>35.14222482469643</v>
       </c>
       <c r="F4" t="n">
-        <v>201.8637057628863</v>
+        <v>201.8637057628859</v>
       </c>
       <c r="G4" t="n">
-        <v>196.2670532893137</v>
+        <v>196.2670532893141</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27047,10 +27047,10 @@
         <v>35.14222482469643</v>
       </c>
       <c r="N4" t="n">
-        <v>201.8637057628863</v>
+        <v>201.8637057628859</v>
       </c>
       <c r="O4" t="n">
-        <v>196.2670532893137</v>
+        <v>196.267053289314</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27269,10 +27269,10 @@
         <v>35.14222482469643</v>
       </c>
       <c r="N4" t="n">
-        <v>201.8637057628863</v>
+        <v>201.8637057628859</v>
       </c>
       <c r="O4" t="n">
-        <v>196.2670532893137</v>
+        <v>196.2670532893141</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.8393621794714847</v>
+        <v>0.8393621794714834</v>
       </c>
       <c r="H14" t="n">
-        <v>8.596117920512345</v>
+        <v>8.596117920512333</v>
       </c>
       <c r="I14" t="n">
-        <v>32.35951042407444</v>
+        <v>32.35951042407439</v>
       </c>
       <c r="J14" t="n">
-        <v>71.23981577991799</v>
+        <v>71.23981577991788</v>
       </c>
       <c r="K14" t="n">
-        <v>106.770016836946</v>
+        <v>106.7700168369458</v>
       </c>
       <c r="L14" t="n">
-        <v>132.4576471369464</v>
+        <v>132.4576471369462</v>
       </c>
       <c r="M14" t="n">
-        <v>147.3846542961224</v>
+        <v>147.3846542961222</v>
       </c>
       <c r="N14" t="n">
-        <v>149.7694920885458</v>
+        <v>149.7694920885456</v>
       </c>
       <c r="O14" t="n">
-        <v>141.4230844164262</v>
+        <v>141.423084416426</v>
       </c>
       <c r="P14" t="n">
-        <v>120.7013306107239</v>
+        <v>120.7013306107237</v>
       </c>
       <c r="Q14" t="n">
-        <v>90.64167255840135</v>
+        <v>90.64167255840123</v>
       </c>
       <c r="R14" t="n">
-        <v>52.7255845062257</v>
+        <v>52.72558450622562</v>
       </c>
       <c r="S14" t="n">
-        <v>19.12696566470648</v>
+        <v>19.12696566470645</v>
       </c>
       <c r="T14" t="n">
-        <v>3.674307940636426</v>
+        <v>3.674307940636421</v>
       </c>
       <c r="U14" t="n">
-        <v>0.06714897435771876</v>
+        <v>0.06714897435771866</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.4490983585728801</v>
+        <v>0.4490983585728794</v>
       </c>
       <c r="H15" t="n">
-        <v>4.337344673585448</v>
+        <v>4.337344673585442</v>
       </c>
       <c r="I15" t="n">
-        <v>15.46237769647855</v>
+        <v>15.46237769647853</v>
       </c>
       <c r="J15" t="n">
-        <v>42.42994623692286</v>
+        <v>42.4299462369228</v>
       </c>
       <c r="K15" t="n">
-        <v>72.51953626130583</v>
+        <v>72.51953626130572</v>
       </c>
       <c r="L15" t="n">
-        <v>97.51146596995804</v>
+        <v>97.5114659699579</v>
       </c>
       <c r="M15" t="n">
-        <v>113.7912814682249</v>
+        <v>113.7912814682247</v>
       </c>
       <c r="N15" t="n">
-        <v>116.8029980921632</v>
+        <v>116.8029980921631</v>
       </c>
       <c r="O15" t="n">
-        <v>106.8519239364168</v>
+        <v>106.8519239364166</v>
       </c>
       <c r="P15" t="n">
-        <v>85.75808919099147</v>
+        <v>85.75808919099134</v>
       </c>
       <c r="Q15" t="n">
-        <v>57.32701152589958</v>
+        <v>57.32701152589949</v>
       </c>
       <c r="R15" t="n">
-        <v>27.88349282437585</v>
+        <v>27.88349282437581</v>
       </c>
       <c r="S15" t="n">
-        <v>8.341805037526957</v>
+        <v>8.341805037526944</v>
       </c>
       <c r="T15" t="n">
-        <v>1.810181541791564</v>
+        <v>1.810181541791562</v>
       </c>
       <c r="U15" t="n">
-        <v>0.02954594464295265</v>
+        <v>0.02954594464295261</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.3765089776358773</v>
+        <v>0.3765089776358767</v>
       </c>
       <c r="H16" t="n">
-        <v>3.347507092071711</v>
+        <v>3.347507092071706</v>
       </c>
       <c r="I16" t="n">
-        <v>11.32265180017711</v>
+        <v>11.3226518001771</v>
       </c>
       <c r="J16" t="n">
-        <v>26.61918471885652</v>
+        <v>26.61918471885648</v>
       </c>
       <c r="K16" t="n">
-        <v>43.74349758351374</v>
+        <v>43.74349758351367</v>
       </c>
       <c r="L16" t="n">
-        <v>55.97661654779217</v>
+        <v>55.97661654779208</v>
       </c>
       <c r="M16" t="n">
-        <v>59.01949364886756</v>
+        <v>59.01949364886747</v>
       </c>
       <c r="N16" t="n">
-        <v>57.61614200495206</v>
+        <v>57.61614200495197</v>
       </c>
       <c r="O16" t="n">
-        <v>53.21783258438747</v>
+        <v>53.21783258438739</v>
       </c>
       <c r="P16" t="n">
-        <v>45.53704944061554</v>
+        <v>45.53704944061548</v>
       </c>
       <c r="Q16" t="n">
-        <v>31.52749266367333</v>
+        <v>31.52749266367328</v>
       </c>
       <c r="R16" t="n">
-        <v>16.92921275806408</v>
+        <v>16.92921275806405</v>
       </c>
       <c r="S16" t="n">
-        <v>6.561524637527059</v>
+        <v>6.561524637527049</v>
       </c>
       <c r="T16" t="n">
-        <v>1.608720177171475</v>
+        <v>1.608720177171473</v>
       </c>
       <c r="U16" t="n">
-        <v>0.02053685332559333</v>
+        <v>0.0205368533255933</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -33411,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1.518567494340047</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H32" t="n">
-        <v>15.55202935141001</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I32" t="n">
-        <v>58.54457332554473</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J32" t="n">
-        <v>128.8865178727437</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K32" t="n">
-        <v>193.167479908158</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L32" t="n">
-        <v>239.6413398630672</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M32" t="n">
-        <v>266.6471645405371</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N32" t="n">
-        <v>270.9617944338307</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O32" t="n">
-        <v>255.8615389119869</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P32" t="n">
-        <v>218.3719038954669</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q32" t="n">
-        <v>163.9882055044139</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R32" t="n">
-        <v>95.39071536633809</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S32" t="n">
-        <v>34.60435677727386</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T32" t="n">
-        <v>6.647529206473561</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U32" t="n">
-        <v>0.1214853995472038</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.8125052400141118</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H33" t="n">
-        <v>7.847090081188924</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I33" t="n">
-        <v>27.97441286890692</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J33" t="n">
-        <v>76.76392708396486</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K33" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L33" t="n">
-        <v>176.4169820478009</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M33" t="n">
-        <v>205.8702969983124</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N33" t="n">
-        <v>211.3190711736703</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O33" t="n">
-        <v>193.3156655923049</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P33" t="n">
-        <v>155.1528646479579</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q33" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R33" t="n">
-        <v>50.44659727034988</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S33" t="n">
-        <v>15.09192847131474</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T33" t="n">
-        <v>3.274966296372669</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U33" t="n">
-        <v>0.05345429210619159</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.6811770994078619</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H34" t="n">
-        <v>6.056283665644449</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I34" t="n">
-        <v>20.48485313492007</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J34" t="n">
-        <v>48.15922092813583</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K34" t="n">
-        <v>79.14039391302248</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L34" t="n">
-        <v>101.2724571246925</v>
+        <v>101.2724571246924</v>
       </c>
       <c r="M34" t="n">
-        <v>106.7776065917251</v>
+        <v>106.777606591725</v>
       </c>
       <c r="N34" t="n">
-        <v>104.2386737666595</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O34" t="n">
-        <v>96.28128674175855</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P34" t="n">
-        <v>82.38527391383811</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q34" t="n">
-        <v>57.03929329678015</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R34" t="n">
-        <v>30.62819939701167</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S34" t="n">
-        <v>11.87105908695337</v>
+        <v>11.87105908695336</v>
       </c>
       <c r="T34" t="n">
-        <v>2.910483970197227</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U34" t="n">
-        <v>0.03715511451315615</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1.518567494340043</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H35" t="n">
-        <v>15.55202935140997</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I35" t="n">
-        <v>58.54457332554457</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J35" t="n">
-        <v>128.8865178727434</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K35" t="n">
-        <v>193.1674799081574</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L35" t="n">
-        <v>239.6413398630665</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M35" t="n">
-        <v>266.6471645405363</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N35" t="n">
-        <v>270.9617944338299</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O35" t="n">
-        <v>255.8615389119861</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P35" t="n">
-        <v>218.3719038954663</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q35" t="n">
-        <v>163.9882055044134</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R35" t="n">
-        <v>95.39071536633782</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S35" t="n">
-        <v>34.60435677727376</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T35" t="n">
-        <v>6.647529206473542</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U35" t="n">
-        <v>0.1214853995472034</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.8125052400141095</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H36" t="n">
-        <v>7.847090081188902</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I36" t="n">
-        <v>27.97441286890685</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J36" t="n">
-        <v>76.76392708396463</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K36" t="n">
-        <v>131.20177816491</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L36" t="n">
-        <v>176.4169820478004</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M36" t="n">
-        <v>205.8702969983119</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N36" t="n">
-        <v>211.3190711736697</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O36" t="n">
-        <v>193.3156655923044</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P36" t="n">
-        <v>155.1528646479575</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q36" t="n">
-        <v>103.7155811639064</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R36" t="n">
-        <v>50.44659727034973</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S36" t="n">
-        <v>15.0919284713147</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T36" t="n">
-        <v>3.27496629637266</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U36" t="n">
-        <v>0.05345429210619144</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.68117709940786</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H37" t="n">
-        <v>6.056283665644432</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I37" t="n">
-        <v>20.48485313492001</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J37" t="n">
-        <v>48.1592209281357</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K37" t="n">
-        <v>79.14039391302225</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L37" t="n">
-        <v>101.2724571246922</v>
+        <v>101.2724571246924</v>
       </c>
       <c r="M37" t="n">
-        <v>106.7776065917248</v>
+        <v>106.777606591725</v>
       </c>
       <c r="N37" t="n">
-        <v>104.2386737666592</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O37" t="n">
-        <v>96.28128674175828</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P37" t="n">
-        <v>82.38527391383786</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q37" t="n">
-        <v>57.03929329677999</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R37" t="n">
-        <v>30.62819939701158</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S37" t="n">
-        <v>11.87105908695334</v>
+        <v>11.87105908695336</v>
       </c>
       <c r="T37" t="n">
-        <v>2.910483970197219</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U37" t="n">
-        <v>0.03715511451315604</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,13 +33885,13 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H38" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I38" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J38" t="n">
         <v>128.8865178727436</v>
@@ -33909,22 +33909,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O38" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P38" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q38" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R38" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S38" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T38" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U38" t="n">
         <v>0.1214853995472036</v>
@@ -33964,16 +33964,16 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H39" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I39" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J39" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K39" t="n">
         <v>131.2017781649102</v>
@@ -33997,16 +33997,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R39" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S39" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T39" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U39" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,19 +34043,19 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H40" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I40" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J40" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K40" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L40" t="n">
         <v>101.2724571246924</v>
@@ -34067,13 +34067,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O40" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P40" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q40" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R40" t="n">
         <v>30.62819939701163</v>
@@ -34082,7 +34082,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T40" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U40" t="n">
         <v>0.0371551145131561</v>
@@ -34122,13 +34122,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H41" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I41" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J41" t="n">
         <v>128.8865178727436</v>
@@ -34146,22 +34146,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O41" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P41" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q41" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R41" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S41" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T41" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U41" t="n">
         <v>0.1214853995472036</v>
@@ -34201,16 +34201,16 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H42" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I42" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J42" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K42" t="n">
         <v>131.2017781649102</v>
@@ -34234,16 +34234,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R42" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S42" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T42" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U42" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,19 +34280,19 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H43" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I43" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J43" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K43" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L43" t="n">
         <v>101.2724571246924</v>
@@ -34304,13 +34304,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O43" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P43" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q43" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R43" t="n">
         <v>30.62819939701163</v>
@@ -34319,7 +34319,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T43" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U43" t="n">
         <v>0.0371551145131561</v>
@@ -34710,7 +34710,7 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N2" t="n">
-        <v>207.9338608153932</v>
+        <v>207.9338608153933</v>
       </c>
       <c r="O2" t="n">
         <v>150.7019698410586</v>
@@ -34780,10 +34780,10 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>241.0142888776591</v>
@@ -34792,13 +34792,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O3" t="n">
-        <v>43.28534947792182</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q3" t="n">
-        <v>70.09551364982758</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35023,19 +35023,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
-        <v>226.4350751681936</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N6" t="n">
+        <v>55.51629994036225</v>
+      </c>
+      <c r="O6" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35488,10 +35488,10 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>6.370323552522133</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>138.7877391315785</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -35500,7 +35500,7 @@
         <v>276.1565137023555</v>
       </c>
       <c r="N12" t="n">
-        <v>124.3809279722199</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="O12" t="n">
         <v>269.1887005891756</v>
@@ -35509,7 +35509,7 @@
         <v>198.8728484821096</v>
       </c>
       <c r="Q12" t="n">
-        <v>79.71116244199196</v>
+        <v>73.09363939595706</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35646,28 +35646,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>59.29052642530547</v>
+        <v>59.29052642530536</v>
       </c>
       <c r="K14" t="n">
-        <v>210.8255783631301</v>
+        <v>210.82557836313</v>
       </c>
       <c r="L14" t="n">
-        <v>314.3524467174096</v>
+        <v>314.3524467174094</v>
       </c>
       <c r="M14" t="n">
-        <v>366.5519545616822</v>
+        <v>366.551954561682</v>
       </c>
       <c r="N14" t="n">
-        <v>357.703352903939</v>
+        <v>357.7033529039388</v>
       </c>
       <c r="O14" t="n">
-        <v>292.1250542574849</v>
+        <v>292.1250542574846</v>
       </c>
       <c r="P14" t="n">
-        <v>211.267043026937</v>
+        <v>211.2670430269368</v>
       </c>
       <c r="Q14" t="n">
-        <v>80.65097334385655</v>
+        <v>80.65097334385642</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35728,25 +35728,25 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>199.1433342995254</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>329.7974314935431</v>
+        <v>329.7974314935429</v>
       </c>
       <c r="M15" t="n">
-        <v>437.3623112962065</v>
+        <v>437.3623112962063</v>
       </c>
       <c r="N15" t="n">
-        <v>440.9233285660413</v>
+        <v>464.8036603523833</v>
       </c>
       <c r="O15" t="n">
-        <v>358.1179987687019</v>
+        <v>358.1179987687017</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>175.2630025131826</v>
       </c>
       <c r="Q15" t="n">
-        <v>127.4225251757272</v>
+        <v>127.4225251757271</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35807,22 +35807,22 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>21.47400575763088</v>
+        <v>21.47400575763081</v>
       </c>
       <c r="L16" t="n">
-        <v>83.5666418081083</v>
+        <v>83.56664180810822</v>
       </c>
       <c r="M16" t="n">
-        <v>98.60337061070814</v>
+        <v>98.60337061070805</v>
       </c>
       <c r="N16" t="n">
         <v>101.7483143841806</v>
       </c>
       <c r="O16" t="n">
-        <v>77.80296049842715</v>
+        <v>77.80296049842707</v>
       </c>
       <c r="P16" t="n">
-        <v>42.81560870550903</v>
+        <v>42.81560870550896</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35980,10 +35980,10 @@
         <v>444.5817404245897</v>
       </c>
       <c r="P18" t="n">
-        <v>339.6412258735646</v>
+        <v>220.2054057751866</v>
       </c>
       <c r="Q18" t="n">
-        <v>54.37527471535575</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36202,7 +36202,7 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624587</v>
       </c>
       <c r="L21" t="n">
         <v>408.7029475713857</v>
@@ -36220,7 +36220,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q21" t="n">
-        <v>130.3926104730626</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36454,10 +36454,10 @@
         <v>444.5817404245897</v>
       </c>
       <c r="P24" t="n">
-        <v>296.2227415328935</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q24" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36597,7 +36597,7 @@
         <v>116.937228518131</v>
       </c>
       <c r="K26" t="n">
-        <v>297.2230414343419</v>
+        <v>297.2230414343417</v>
       </c>
       <c r="L26" t="n">
         <v>421.5361394435301</v>
@@ -36612,7 +36612,7 @@
         <v>406.5635087530451</v>
       </c>
       <c r="P26" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q26" t="n">
         <v>153.9975062898689</v>
@@ -36673,10 +36673,10 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624591</v>
       </c>
       <c r="L27" t="n">
         <v>408.7029475713857</v>
@@ -36694,7 +36694,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q27" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36916,10 +36916,10 @@
         <v>257.8255762031298</v>
       </c>
       <c r="L30" t="n">
-        <v>408.7029475713857</v>
+        <v>365.284463230715</v>
       </c>
       <c r="M30" t="n">
-        <v>486.0228424856231</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N30" t="n">
         <v>559.3197334338902</v>
@@ -37068,28 +37068,28 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>116.9372285181312</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K32" t="n">
-        <v>297.2230414343421</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L32" t="n">
-        <v>421.5361394435304</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M32" t="n">
-        <v>485.8144648060968</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N32" t="n">
-        <v>478.895655249224</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O32" t="n">
-        <v>406.5635087530455</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P32" t="n">
-        <v>308.9376163116785</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q32" t="n">
-        <v>153.9975062898691</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -37147,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>76.017335757707</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K33" t="n">
-        <v>257.8255762031299</v>
+        <v>138.3897561047517</v>
       </c>
       <c r="L33" t="n">
-        <v>408.7029475713859</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M33" t="n">
-        <v>529.441326826294</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N33" t="n">
-        <v>559.3197334338905</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O33" t="n">
-        <v>444.58174042459</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P33" t="n">
-        <v>339.6412258735648</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q33" t="n">
-        <v>54.3752747153553</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37229,22 +37229,22 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>56.87090208713963</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L34" t="n">
-        <v>128.8624823850087</v>
+        <v>128.8624823850085</v>
       </c>
       <c r="M34" t="n">
-        <v>146.3614835535657</v>
+        <v>146.3614835535656</v>
       </c>
       <c r="N34" t="n">
-        <v>148.3708461458881</v>
+        <v>148.370846145888</v>
       </c>
       <c r="O34" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P34" t="n">
-        <v>79.66383317873159</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -37305,28 +37305,28 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>116.9372285181338</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K35" t="n">
-        <v>297.2230414343416</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L35" t="n">
-        <v>421.5361394435297</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M35" t="n">
-        <v>485.814464806096</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N35" t="n">
-        <v>478.8956552492232</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O35" t="n">
-        <v>406.5635087530447</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P35" t="n">
-        <v>308.9376163116794</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q35" t="n">
-        <v>153.9975062898686</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37384,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>76.01733575770677</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>257.8255762031296</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L36" t="n">
-        <v>408.7029475713854</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M36" t="n">
-        <v>529.4413268262934</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N36" t="n">
-        <v>559.31973343389</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O36" t="n">
-        <v>444.5817404245895</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P36" t="n">
-        <v>339.6412258735644</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q36" t="n">
-        <v>54.37527471535851</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37466,22 +37466,22 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>56.8709020871394</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L37" t="n">
-        <v>128.8624823850083</v>
+        <v>128.8624823850085</v>
       </c>
       <c r="M37" t="n">
-        <v>146.3614835535654</v>
+        <v>146.3614835535656</v>
       </c>
       <c r="N37" t="n">
-        <v>148.3708461458878</v>
+        <v>148.370846145888</v>
       </c>
       <c r="O37" t="n">
-        <v>120.866414655798</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P37" t="n">
-        <v>79.66383317873135</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -37557,10 +37557,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O38" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P38" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q38" t="n">
         <v>153.9975062898689</v>
@@ -37621,7 +37621,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K39" t="n">
         <v>257.8255762031298</v>
@@ -37630,19 +37630,19 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M39" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279158</v>
       </c>
       <c r="N39" t="n">
         <v>559.3197334338902</v>
       </c>
       <c r="O39" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P39" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q39" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37703,7 +37703,7 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L40" t="n">
         <v>128.8624823850085</v>
@@ -37718,7 +37718,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P40" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37794,10 +37794,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O41" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P41" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q41" t="n">
         <v>153.9975062898689</v>
@@ -37858,7 +37858,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>76.01733575770689</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K42" t="n">
         <v>257.8255762031298</v>
@@ -37870,16 +37870,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N42" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355119</v>
       </c>
       <c r="O42" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P42" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q42" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37940,7 +37940,7 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L43" t="n">
         <v>128.8624823850085</v>
@@ -37955,7 +37955,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P43" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -38016,7 +38016,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>116.9372285181308</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K44" t="n">
         <v>297.2230414343419</v>
@@ -38104,10 +38104,10 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M45" t="n">
-        <v>486.0228424856231</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N45" t="n">
-        <v>559.3197334338902</v>
+        <v>515.9012490932188</v>
       </c>
       <c r="O45" t="n">
         <v>444.5817404245897</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/420000/Output_4_16.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/420000/Output_4_16.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>459907.283455738</v>
+        <v>526224.8986752479</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>406463.2981009823</v>
+        <v>406463.2981009821</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>11783336.69528064</v>
+        <v>11783336.69528065</v>
       </c>
     </row>
     <row r="9">
@@ -667,61 +667,61 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R2" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S2" t="n">
+        <v>209.0200695862453</v>
+      </c>
+      <c r="T2" t="n">
+        <v>84.41978777916125</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G2" t="n">
+      <c r="W2" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="H2" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -743,7 +743,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>29.79900896488263</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -791,7 +791,7 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>29.79900896488251</v>
       </c>
       <c r="U3" t="n">
         <v>225.9413820809748</v>
@@ -873,13 +873,13 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -898,13 +898,13 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>241.0142888776591</v>
+        <v>70.34400780127524</v>
       </c>
       <c r="D5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -943,19 +943,19 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>202.2946864288972</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -989,16 +989,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>97.35820752796809</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>11.01727716149734</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1022,28 +1022,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1095,7 +1095,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -1104,7 +1104,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1113,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>130.4655268502615</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1144,13 +1144,13 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>62.4162677022923</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1183,22 +1183,22 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>94.41048699370604</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0</v>
+      </c>
+      <c r="X8" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="V8" t="n">
-        <v>0</v>
-      </c>
-      <c r="W8" t="n">
-        <v>0</v>
-      </c>
-      <c r="X8" t="n">
-        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1211,22 +1211,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>98.47382483861915</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1235,7 +1235,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1262,16 +1262,16 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
@@ -1280,7 +1280,7 @@
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>8.583694061602047</v>
       </c>
     </row>
     <row r="10">
@@ -1344,13 +1344,13 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1372,25 +1372,25 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="D11" t="n">
-        <v>20.75911149906596</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>63.012659064933</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
         <v>276.1565137023555</v>
       </c>
-      <c r="F11" t="n">
-        <v>0</v>
-      </c>
-      <c r="G11" t="n">
-        <v>276.1565137023555</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>205.0481221176458</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1423,10 +1423,10 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>222.4795457699687</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>251.3343897888113</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1435,7 +1435,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>276.1565137023555</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1448,28 +1448,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>68.70013939739761</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>137.2681884137393</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>86.80307722268739</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,22 +1496,22 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>95.48084390037957</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>199.8611009721718</v>
       </c>
       <c r="U12" t="n">
-        <v>225.9364262421938</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>102.9715004426163</v>
       </c>
       <c r="W12" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
         <v>205.7729852034775</v>
@@ -1581,10 +1581,10 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
+        <v>0</v>
+      </c>
+      <c r="U13" t="n">
         <v>175.1311939478779</v>
-      </c>
-      <c r="U13" t="n">
-        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -1606,25 +1606,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>414.4633753356636</v>
+        <v>22.40866447387009</v>
       </c>
       <c r="H14" t="n">
-        <v>322.424743328098</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1654,28 +1654,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>97.14353343492391</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>189.8931039215389</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>219.4215416234949</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>251.2785039334788</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1688,16 +1688,16 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>3.561430184062718</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>136.5501020120093</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -1733,10 +1733,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>72.27434132826733</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>163.3413660663109</v>
       </c>
       <c r="T15" t="n">
         <v>198.35454715303</v>
@@ -1748,7 +1748,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
         <v>205.7729852034775</v>
@@ -1830,10 +1830,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>165.3956414956209</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>165.3956414956218</v>
       </c>
     </row>
     <row r="17">
@@ -1843,19 +1843,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>59.98826205530212</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>199.3355115125534</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -1864,7 +1864,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I17" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1891,16 +1891,16 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S17" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1912,7 +1912,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1940,10 +1940,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H18" t="n">
-        <v>104.3883541553069</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I18" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250796</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S18" t="n">
         <v>156.5912426325231</v>
@@ -2001,19 +2001,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>126.5467427872845</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>86.88462298447445</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2055,7 +2055,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -2064,7 +2064,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2080,16 +2080,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>353.9783105420683</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -2101,7 +2101,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I20" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2128,7 +2128,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -2143,7 +2143,7 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>132.3401402600189</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -2180,7 +2180,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I21" t="n">
-        <v>61.42221998250752</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229296</v>
       </c>
       <c r="S21" t="n">
         <v>156.5912426325231</v>
@@ -2247,7 +2247,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>94.63926978364033</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2292,16 +2292,16 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>190.2713935802968</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2317,25 +2317,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>76.80462337977853</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>140.2343831124414</v>
       </c>
       <c r="G23" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2365,13 +2365,13 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U23" t="n">
         <v>251.2241675082893</v>
@@ -2414,10 +2414,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H24" t="n">
-        <v>104.3883541553069</v>
+        <v>104.3883541553073</v>
       </c>
       <c r="I24" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S24" t="n">
         <v>156.5912426325231</v>
@@ -2532,10 +2532,10 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>128.7835007017901</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>94.63926978364034</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2557,25 +2557,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>31.14906886991851</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I26" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2602,7 +2602,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -2611,19 +2611,19 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>358.9670275741416</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2654,7 +2654,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I27" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S27" t="n">
         <v>156.5912426325231</v>
@@ -2696,7 +2696,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>251.6949831609196</v>
+        <v>251.6949831609193</v>
       </c>
       <c r="X27" t="n">
         <v>205.7729852034775</v>
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2721,13 +2721,13 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>54.65520119711159</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2769,13 +2769,13 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>213.8524658611804</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2791,25 +2791,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>157.8381208675085</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2839,7 +2839,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -2848,19 +2848,19 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>284.5615160058697</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -2891,7 +2891,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I30" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S30" t="n">
         <v>156.5912426325231</v>
@@ -3009,10 +3009,10 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>94.63926978364034</v>
       </c>
       <c r="W31" t="n">
-        <v>129.0246247964033</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3028,28 +3028,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>162.7187796765512</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>116.3856072204738</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3076,13 +3076,13 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U32" t="n">
         <v>251.2241675082893</v>
@@ -3097,7 +3097,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3122,7 +3122,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>136.5310119231958</v>
+        <v>136.5310119231965</v>
       </c>
       <c r="H33" t="n">
         <v>104.3883541553076</v>
@@ -3198,7 +3198,7 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>94.63926978364033</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3240,7 +3240,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>94.63926978364034</v>
       </c>
       <c r="U34" t="n">
         <v>286.2818742419777</v>
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>213.4267574453117</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -3283,7 +3283,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,13 +3316,13 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S35" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U35" t="n">
-        <v>227.9200462529332</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -3334,7 +3334,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3365,7 +3365,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I36" t="n">
-        <v>61.42221998250796</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229296</v>
       </c>
       <c r="S36" t="n">
         <v>156.5912426325231</v>
@@ -3438,7 +3438,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>94.63926978364032</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3483,13 +3483,13 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>129.0246247964033</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -3511,7 +3511,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -3520,10 +3520,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>77.60951470632907</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3556,22 +3556,22 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>307.5386589270119</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>49.71123688229251</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S39" t="n">
         <v>156.5912426325231</v>
@@ -3714,19 +3714,19 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U40" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>129.0246247964033</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>156.1271626621471</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3739,25 +3739,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>57.44899573820057</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>22.8209810344688</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,13 +3790,13 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U41" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3808,7 +3808,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3903,7 +3903,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>94.63926978364033</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3957,10 +3957,10 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>129.0246247964033</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3976,10 +3976,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
@@ -3991,13 +3991,13 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4024,13 +4024,13 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T44" t="n">
-        <v>176.4153746583871</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U44" t="n">
         <v>251.2241675082893</v>
@@ -4042,10 +4042,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>38.61332003591819</v>
       </c>
     </row>
     <row r="45">
@@ -4076,7 +4076,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I45" t="n">
-        <v>61.42221998250752</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229251</v>
       </c>
       <c r="S45" t="n">
         <v>156.5912426325231</v>
@@ -4143,10 +4143,10 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4188,16 +4188,16 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>225.0351054580843</v>
+        <v>123.4514883688806</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>156.1271626621471</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C2" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D2" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E2" t="n">
-        <v>749.627473042513</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F2" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G2" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H2" t="n">
         <v>19.28114311021272</v>
@@ -4351,31 +4351,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q2" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R2" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S2" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T2" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="U2" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V2" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W2" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X2" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y2" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="3">
@@ -4385,10 +4385,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>49.38115216564972</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C3" t="n">
-        <v>49.38115216564972</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D3" t="n">
         <v>19.28114311021272</v>
@@ -4421,13 +4421,13 @@
         <v>257.8852890990952</v>
       </c>
       <c r="N3" t="n">
-        <v>496.4894350879777</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O3" t="n">
-        <v>735.0935810768601</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P3" t="n">
-        <v>917.7370586902109</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q3" t="n">
         <v>964.0571555106362</v>
@@ -4439,22 +4439,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T3" t="n">
-        <v>964.0571555106362</v>
+        <v>933.9571464551993</v>
       </c>
       <c r="U3" t="n">
-        <v>735.8335372470253</v>
+        <v>705.7335281915883</v>
       </c>
       <c r="V3" t="n">
-        <v>500.6814290152826</v>
+        <v>470.5814199598456</v>
       </c>
       <c r="W3" t="n">
-        <v>257.2326523711826</v>
+        <v>227.1326433157456</v>
       </c>
       <c r="X3" t="n">
-        <v>49.38115216564972</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y3" t="n">
-        <v>49.38115216564972</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="4">
@@ -4521,10 +4521,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W4" t="n">
         <v>19.28114311021272</v>
@@ -4543,13 +4543,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>749.627473042513</v>
+        <v>90.33569644483418</v>
       </c>
       <c r="C5" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D5" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E5" t="n">
         <v>19.28114311021272</v>
@@ -4591,28 +4591,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R5" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S5" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T5" t="n">
-        <v>749.627473042513</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="U5" t="n">
-        <v>749.627473042513</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="V5" t="n">
-        <v>749.627473042513</v>
+        <v>90.33569644483418</v>
       </c>
       <c r="W5" t="n">
-        <v>749.627473042513</v>
+        <v>90.33569644483418</v>
       </c>
       <c r="X5" t="n">
-        <v>749.627473042513</v>
+        <v>90.33569644483418</v>
       </c>
       <c r="Y5" t="n">
-        <v>749.627473042513</v>
+        <v>90.33569644483418</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>30.40970589960398</v>
+        <v>292.8299288097498</v>
       </c>
       <c r="C6" t="n">
-        <v>30.40970589960398</v>
+        <v>118.3768995286228</v>
       </c>
       <c r="D6" t="n">
-        <v>30.40970589960398</v>
+        <v>118.3768995286228</v>
       </c>
       <c r="E6" t="n">
-        <v>30.40970589960398</v>
+        <v>118.3768995286228</v>
       </c>
       <c r="F6" t="n">
-        <v>30.40970589960398</v>
+        <v>118.3768995286228</v>
       </c>
       <c r="G6" t="n">
-        <v>30.40970589960398</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H6" t="n">
-        <v>30.40970589960398</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I6" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J6" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L6" t="n">
-        <v>249.2442489785619</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M6" t="n">
-        <v>487.8483949674443</v>
+        <v>383.2428491569326</v>
       </c>
       <c r="N6" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O6" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P6" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q6" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S6" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T6" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U6" t="n">
-        <v>689.4702815141908</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V6" t="n">
-        <v>689.4702815141908</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W6" t="n">
-        <v>446.0215048700907</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="X6" t="n">
-        <v>238.1700046645579</v>
+        <v>292.8299288097498</v>
       </c>
       <c r="Y6" t="n">
-        <v>30.40970589960398</v>
+        <v>292.8299288097498</v>
       </c>
     </row>
     <row r="7">
@@ -4743,22 +4743,22 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S7" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T7" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U7" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V7" t="n">
         <v>19.28114311021272</v>
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>262.7299197543128</v>
+        <v>325.7766548071333</v>
       </c>
       <c r="C8" t="n">
-        <v>262.7299197543128</v>
+        <v>325.7766548071333</v>
       </c>
       <c r="D8" t="n">
-        <v>262.7299197543128</v>
+        <v>325.7766548071333</v>
       </c>
       <c r="E8" t="n">
-        <v>262.7299197543128</v>
+        <v>325.7766548071333</v>
       </c>
       <c r="F8" t="n">
         <v>262.7299197543128</v>
       </c>
       <c r="G8" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H8" t="n">
         <v>19.28114311021272</v>
@@ -4831,25 +4831,25 @@
         <v>812.6742080953335</v>
       </c>
       <c r="S8" t="n">
-        <v>601.5428246748836</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T8" t="n">
-        <v>506.1786963984129</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="U8" t="n">
-        <v>262.7299197543128</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="V8" t="n">
-        <v>262.7299197543128</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="W8" t="n">
-        <v>262.7299197543128</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="X8" t="n">
-        <v>262.7299197543128</v>
+        <v>569.2254314512334</v>
       </c>
       <c r="Y8" t="n">
-        <v>262.7299197543128</v>
+        <v>569.2254314512334</v>
       </c>
     </row>
     <row r="9">
@@ -4859,28 +4859,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>119.5037857009976</v>
+        <v>787.171420448546</v>
       </c>
       <c r="C9" t="n">
-        <v>20.03527576299844</v>
+        <v>612.718391167419</v>
       </c>
       <c r="D9" t="n">
-        <v>20.03527576299844</v>
+        <v>463.7839815061678</v>
       </c>
       <c r="E9" t="n">
-        <v>20.03527576299844</v>
+        <v>304.5465265007123</v>
       </c>
       <c r="F9" t="n">
-        <v>20.03527576299844</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="G9" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H9" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I9" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J9" t="n">
         <v>19.28114311021272</v>
@@ -4889,16 +4889,16 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L9" t="n">
-        <v>374.6018090363993</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M9" t="n">
-        <v>542.809531908403</v>
+        <v>383.2428491569326</v>
       </c>
       <c r="N9" t="n">
-        <v>542.809531908403</v>
+        <v>621.8469951458151</v>
       </c>
       <c r="O9" t="n">
-        <v>781.4136778972854</v>
+        <v>860.4511411346975</v>
       </c>
       <c r="P9" t="n">
         <v>964.0571555106362</v>
@@ -4910,25 +4910,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S9" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T9" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U9" t="n">
-        <v>562.4161926976942</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V9" t="n">
-        <v>327.2640844659515</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W9" t="n">
-        <v>327.2640844659515</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X9" t="n">
-        <v>327.2640844659515</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y9" t="n">
-        <v>119.5037857009976</v>
+        <v>955.386757468614</v>
       </c>
     </row>
     <row r="10">
@@ -4992,10 +4992,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V10" t="n">
         <v>19.28114311021272</v>
@@ -5017,25 +5017,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>600.9532674636399</v>
+        <v>850.7529338106226</v>
       </c>
       <c r="C11" t="n">
-        <v>600.9532674636399</v>
+        <v>571.8069603738999</v>
       </c>
       <c r="D11" t="n">
-        <v>579.9844679696339</v>
+        <v>571.8069603738999</v>
       </c>
       <c r="E11" t="n">
-        <v>301.0384945329112</v>
+        <v>571.8069603738999</v>
       </c>
       <c r="F11" t="n">
-        <v>301.0384945329112</v>
+        <v>508.1578098032605</v>
       </c>
       <c r="G11" t="n">
-        <v>22.09252109618844</v>
+        <v>508.1578098032605</v>
       </c>
       <c r="H11" t="n">
-        <v>22.09252109618844</v>
+        <v>229.2118363665377</v>
       </c>
       <c r="I11" t="n">
         <v>22.09252109618844</v>
@@ -5071,22 +5071,22 @@
         <v>1104.626054809422</v>
       </c>
       <c r="T11" t="n">
-        <v>879.8992409003627</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="U11" t="n">
-        <v>879.8992409003627</v>
+        <v>850.7529338106226</v>
       </c>
       <c r="V11" t="n">
-        <v>879.8992409003627</v>
+        <v>850.7529338106226</v>
       </c>
       <c r="W11" t="n">
-        <v>879.8992409003627</v>
+        <v>850.7529338106226</v>
       </c>
       <c r="X11" t="n">
-        <v>600.9532674636399</v>
+        <v>850.7529338106226</v>
       </c>
       <c r="Y11" t="n">
-        <v>600.9532674636399</v>
+        <v>850.7529338106226</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>109.772397078701</v>
+        <v>494.4377411542248</v>
       </c>
       <c r="C12" t="n">
-        <v>109.772397078701</v>
+        <v>319.9847118730978</v>
       </c>
       <c r="D12" t="n">
-        <v>109.772397078701</v>
+        <v>319.9847118730978</v>
       </c>
       <c r="E12" t="n">
-        <v>109.772397078701</v>
+        <v>160.7472568676423</v>
       </c>
       <c r="F12" t="n">
-        <v>109.772397078701</v>
+        <v>160.7472568676423</v>
       </c>
       <c r="G12" t="n">
-        <v>109.772397078701</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="H12" t="n">
-        <v>109.772397078701</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="I12" t="n">
         <v>22.09252109618844</v>
       </c>
       <c r="J12" t="n">
-        <v>22.09252109618844</v>
+        <v>28.39914141318535</v>
       </c>
       <c r="K12" t="n">
-        <v>22.09252109618844</v>
+        <v>45.18387750277333</v>
       </c>
       <c r="L12" t="n">
-        <v>22.09252109618844</v>
+        <v>291.3393440954743</v>
       </c>
       <c r="M12" t="n">
-        <v>295.4874696615203</v>
+        <v>564.7342926608062</v>
       </c>
       <c r="N12" t="n">
-        <v>568.8824182268522</v>
+        <v>838.1292412261381</v>
       </c>
       <c r="O12" t="n">
-        <v>835.379231810136</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="P12" t="n">
-        <v>1032.263351807424</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="Q12" t="n">
         <v>1104.626054809422</v>
       </c>
       <c r="R12" t="n">
-        <v>1104.626054809422</v>
+        <v>1008.180757940352</v>
       </c>
       <c r="S12" t="n">
-        <v>1104.626054809422</v>
+        <v>1008.180757940352</v>
       </c>
       <c r="T12" t="n">
-        <v>1104.626054809422</v>
+        <v>806.3008579684609</v>
       </c>
       <c r="U12" t="n">
-        <v>876.4074424435696</v>
+        <v>806.3008579684609</v>
       </c>
       <c r="V12" t="n">
-        <v>641.2553342118269</v>
+        <v>702.2892413597576</v>
       </c>
       <c r="W12" t="n">
-        <v>387.0179774836253</v>
+        <v>702.2892413597576</v>
       </c>
       <c r="X12" t="n">
-        <v>179.1664772780925</v>
+        <v>494.4377411542248</v>
       </c>
       <c r="Y12" t="n">
-        <v>179.1664772780925</v>
+        <v>494.4377411542248</v>
       </c>
     </row>
     <row r="13">
@@ -5229,7 +5229,7 @@
         <v>198.9927170031359</v>
       </c>
       <c r="T13" t="n">
-        <v>22.09252109618844</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="U13" t="n">
         <v>22.09252109618844</v>
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>782.573050550918</v>
+        <v>815.6274017159461</v>
       </c>
       <c r="C14" t="n">
-        <v>782.573050550918</v>
+        <v>446.6648847755344</v>
       </c>
       <c r="D14" t="n">
-        <v>782.573050550918</v>
+        <v>446.6648847755344</v>
       </c>
       <c r="E14" t="n">
-        <v>782.573050550918</v>
+        <v>60.87663217729016</v>
       </c>
       <c r="F14" t="n">
-        <v>782.573050550918</v>
+        <v>60.87663217729016</v>
       </c>
       <c r="G14" t="n">
-        <v>363.9231764744901</v>
+        <v>38.24161755721936</v>
       </c>
       <c r="H14" t="n">
-        <v>38.24161755721931</v>
+        <v>38.24161755721936</v>
       </c>
       <c r="I14" t="n">
-        <v>38.24161755721931</v>
+        <v>38.24161755721936</v>
       </c>
       <c r="J14" t="n">
-        <v>96.93923871827164</v>
+        <v>96.93923871827189</v>
       </c>
       <c r="K14" t="n">
-        <v>305.6565612977703</v>
+        <v>305.6565612977709</v>
       </c>
       <c r="L14" t="n">
-        <v>616.8654835480058</v>
+        <v>616.8654835480066</v>
       </c>
       <c r="M14" t="n">
-        <v>979.7519185640709</v>
+        <v>979.7519185640722</v>
       </c>
       <c r="N14" t="n">
-        <v>1333.87823793897</v>
+        <v>1333.878237938972</v>
       </c>
       <c r="O14" t="n">
-        <v>1623.08204165388</v>
+        <v>1623.082041653882</v>
       </c>
       <c r="P14" t="n">
-        <v>1832.236414250548</v>
+        <v>1832.23641425055</v>
       </c>
       <c r="Q14" t="n">
-        <v>1912.080877860966</v>
+        <v>1912.080877860968</v>
       </c>
       <c r="R14" t="n">
-        <v>1912.080877860966</v>
+        <v>1813.95609661357</v>
       </c>
       <c r="S14" t="n">
-        <v>1912.080877860966</v>
+        <v>1622.144880531207</v>
       </c>
       <c r="T14" t="n">
-        <v>1912.080877860966</v>
+        <v>1400.506959699394</v>
       </c>
       <c r="U14" t="n">
-        <v>1912.080877860966</v>
+        <v>1146.690289059517</v>
       </c>
       <c r="V14" t="n">
-        <v>1912.080877860966</v>
+        <v>815.6274017159461</v>
       </c>
       <c r="W14" t="n">
-        <v>1559.312222590851</v>
+        <v>815.6274017159461</v>
       </c>
       <c r="X14" t="n">
-        <v>1559.312222590851</v>
+        <v>815.6274017159461</v>
       </c>
       <c r="Y14" t="n">
-        <v>1169.17289061504</v>
+        <v>815.6274017159461</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>337.3079894179116</v>
+        <v>499.5584524713243</v>
       </c>
       <c r="C15" t="n">
-        <v>333.7105851915856</v>
+        <v>325.1054231901973</v>
       </c>
       <c r="D15" t="n">
-        <v>184.7761755303343</v>
+        <v>176.171013528946</v>
       </c>
       <c r="E15" t="n">
-        <v>184.7761755303343</v>
+        <v>38.24161755721936</v>
       </c>
       <c r="F15" t="n">
-        <v>38.24161755721931</v>
+        <v>38.24161755721936</v>
       </c>
       <c r="G15" t="n">
-        <v>38.24161755721931</v>
+        <v>38.24161755721936</v>
       </c>
       <c r="H15" t="n">
-        <v>38.24161755721931</v>
+        <v>38.24161755721936</v>
       </c>
       <c r="I15" t="n">
-        <v>38.24161755721931</v>
+        <v>38.24161755721936</v>
       </c>
       <c r="J15" t="n">
-        <v>38.24161755721931</v>
+        <v>38.24161755721936</v>
       </c>
       <c r="K15" t="n">
-        <v>38.24161755721931</v>
+        <v>38.24161755721936</v>
       </c>
       <c r="L15" t="n">
-        <v>364.7410747358267</v>
+        <v>270.7074613114461</v>
       </c>
       <c r="M15" t="n">
-        <v>797.7297629190709</v>
+        <v>703.6961494946906</v>
       </c>
       <c r="N15" t="n">
-        <v>1257.88538666793</v>
+        <v>1163.85177324355</v>
       </c>
       <c r="O15" t="n">
-        <v>1612.422205448945</v>
+        <v>1518.388592024565</v>
       </c>
       <c r="P15" t="n">
-        <v>1785.932577936996</v>
+        <v>1785.932577936998</v>
       </c>
       <c r="Q15" t="n">
-        <v>1912.080877860966</v>
+        <v>1912.080877860968</v>
       </c>
       <c r="R15" t="n">
-        <v>1839.076492680897</v>
+        <v>1912.080877860968</v>
       </c>
       <c r="S15" t="n">
-        <v>1839.076492680897</v>
+        <v>1747.089599006109</v>
       </c>
       <c r="T15" t="n">
-        <v>1638.718364243493</v>
+        <v>1546.731470568704</v>
       </c>
       <c r="U15" t="n">
-        <v>1410.524590368411</v>
+        <v>1318.537696693622</v>
       </c>
       <c r="V15" t="n">
-        <v>1175.372482136668</v>
+        <v>1083.385588461879</v>
       </c>
       <c r="W15" t="n">
-        <v>921.1351254084664</v>
+        <v>1083.385588461879</v>
       </c>
       <c r="X15" t="n">
-        <v>713.2836252029335</v>
+        <v>875.5340882563462</v>
       </c>
       <c r="Y15" t="n">
-        <v>505.5233264379796</v>
+        <v>667.7737894913923</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>38.24161755721931</v>
+        <v>38.24161755721936</v>
       </c>
       <c r="C16" t="n">
-        <v>38.24161755721931</v>
+        <v>38.24161755721936</v>
       </c>
       <c r="D16" t="n">
-        <v>38.24161755721931</v>
+        <v>38.24161755721936</v>
       </c>
       <c r="E16" t="n">
-        <v>38.24161755721931</v>
+        <v>38.24161755721936</v>
       </c>
       <c r="F16" t="n">
-        <v>38.24161755721931</v>
+        <v>38.24161755721936</v>
       </c>
       <c r="G16" t="n">
-        <v>38.24161755721931</v>
+        <v>38.24161755721936</v>
       </c>
       <c r="H16" t="n">
-        <v>38.24161755721931</v>
+        <v>38.24161755721936</v>
       </c>
       <c r="I16" t="n">
-        <v>38.24161755721931</v>
+        <v>38.24161755721936</v>
       </c>
       <c r="J16" t="n">
-        <v>38.24161755721931</v>
+        <v>38.24161755721936</v>
       </c>
       <c r="K16" t="n">
-        <v>59.50088325727382</v>
+        <v>59.500883257274</v>
       </c>
       <c r="L16" t="n">
-        <v>142.231858647301</v>
+        <v>142.2318586473013</v>
       </c>
       <c r="M16" t="n">
-        <v>239.8491955519019</v>
+        <v>239.8491955519024</v>
       </c>
       <c r="N16" t="n">
-        <v>340.5800267922407</v>
+        <v>340.5800267922414</v>
       </c>
       <c r="O16" t="n">
-        <v>417.6049576856835</v>
+        <v>417.6049576856843</v>
       </c>
       <c r="P16" t="n">
-        <v>459.9924103041374</v>
+        <v>459.9924103041383</v>
       </c>
       <c r="Q16" t="n">
-        <v>459.9924103041374</v>
+        <v>459.9924103041383</v>
       </c>
       <c r="R16" t="n">
-        <v>459.9924103041374</v>
+        <v>459.9924103041383</v>
       </c>
       <c r="S16" t="n">
-        <v>459.9924103041374</v>
+        <v>459.9924103041383</v>
       </c>
       <c r="T16" t="n">
-        <v>459.9924103041374</v>
+        <v>459.9924103041383</v>
       </c>
       <c r="U16" t="n">
-        <v>459.9924103041374</v>
+        <v>459.9924103041383</v>
       </c>
       <c r="V16" t="n">
-        <v>205.3079220982505</v>
+        <v>205.3079220982515</v>
       </c>
       <c r="W16" t="n">
-        <v>205.3079220982505</v>
+        <v>205.3079220982515</v>
       </c>
       <c r="X16" t="n">
-        <v>38.24161755721931</v>
+        <v>205.3079220982515</v>
       </c>
       <c r="Y16" t="n">
-        <v>38.24161755721931</v>
+        <v>38.24161755721936</v>
       </c>
     </row>
     <row r="17">
@@ -5491,43 +5491,43 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1331.377835177124</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="C17" t="n">
-        <v>1331.377835177124</v>
+        <v>940.7524019189439</v>
       </c>
       <c r="D17" t="n">
-        <v>1331.377835177124</v>
+        <v>582.4867033121934</v>
       </c>
       <c r="E17" t="n">
-        <v>945.5895825788796</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="F17" t="n">
-        <v>534.603677789272</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="G17" t="n">
-        <v>534.603677789272</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H17" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I17" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J17" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K17" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L17" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M17" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N17" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O17" t="n">
         <v>2238.843319642689</v>
@@ -5539,28 +5539,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R17" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S17" t="n">
-        <v>2465.942913862885</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T17" t="n">
-        <v>2465.942913862885</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U17" t="n">
-        <v>2465.942913862885</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V17" t="n">
-        <v>2134.880026519314</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W17" t="n">
-        <v>1782.1113712492</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X17" t="n">
-        <v>1782.1113712492</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="Y17" t="n">
-        <v>1391.972039273389</v>
+        <v>1309.714918859356</v>
       </c>
     </row>
     <row r="18">
@@ -5570,28 +5570,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C18" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D18" t="n">
-        <v>665.1105362747043</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E18" t="n">
-        <v>505.8730812692488</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F18" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G18" t="n">
-        <v>221.4284102423999</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H18" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I18" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J18" t="n">
         <v>129.2001442204943</v>
@@ -5606,13 +5606,13 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N18" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O18" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P18" t="n">
-        <v>2525.076107152625</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q18" t="n">
         <v>2697.149091018222</v>
@@ -5633,10 +5633,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W18" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X18" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y18" t="n">
         <v>1156.713312237151</v>
@@ -5649,31 +5649,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>372.9958041606071</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="C19" t="n">
-        <v>204.0596212327002</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="D19" t="n">
-        <v>53.94298182036444</v>
+        <v>288.5951747571379</v>
       </c>
       <c r="E19" t="n">
-        <v>53.94298182036444</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F19" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G19" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H19" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I19" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J19" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K19" t="n">
         <v>110.2451748866326</v>
@@ -5703,22 +5703,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T19" t="n">
-        <v>500.820796875036</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U19" t="n">
-        <v>500.820796875036</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V19" t="n">
-        <v>500.820796875036</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W19" t="n">
-        <v>500.820796875036</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="X19" t="n">
-        <v>500.820796875036</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="Y19" t="n">
-        <v>500.820796875036</v>
+        <v>438.7118141694736</v>
       </c>
     </row>
     <row r="20">
@@ -5728,37 +5728,37 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2118.304160219349</v>
+        <v>1567.641263708175</v>
       </c>
       <c r="C20" t="n">
-        <v>1749.341643278937</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="D20" t="n">
-        <v>1749.341643278937</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="E20" t="n">
-        <v>1363.553390680693</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="F20" t="n">
-        <v>952.5674858910851</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G20" t="n">
-        <v>534.603677789272</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H20" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I20" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J20" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K20" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L20" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M20" t="n">
         <v>1362.238747280443</v>
@@ -5776,28 +5776,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R20" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S20" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T20" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U20" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V20" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W20" t="n">
-        <v>2508.443492195161</v>
+        <v>2344.380435748108</v>
       </c>
       <c r="X20" t="n">
-        <v>2508.443492195161</v>
+        <v>2344.380435748108</v>
       </c>
       <c r="Y20" t="n">
-        <v>2118.304160219349</v>
+        <v>1954.241103772296</v>
       </c>
     </row>
     <row r="21">
@@ -5807,73 +5807,73 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C21" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D21" t="n">
-        <v>665.1105362747043</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E21" t="n">
-        <v>505.8730812692488</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F21" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G21" t="n">
-        <v>221.4284102423999</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H21" t="n">
-        <v>115.9856282673417</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I21" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J21" t="n">
-        <v>53.94298182036444</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K21" t="n">
-        <v>266.2060027641985</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L21" t="n">
-        <v>670.8219208598704</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M21" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N21" t="n">
-        <v>1748.695370517452</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O21" t="n">
-        <v>2188.831293537796</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P21" t="n">
-        <v>2525.076107152625</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q21" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R21" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S21" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T21" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U21" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V21" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W21" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X21" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y21" t="n">
         <v>1156.713312237151</v>
@@ -5886,31 +5886,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>149.5382038240415</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C22" t="n">
-        <v>149.5382038240415</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D22" t="n">
-        <v>149.5382038240415</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E22" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F22" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G22" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H22" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I22" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J22" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K22" t="n">
         <v>110.2451748866326</v>
@@ -5940,22 +5940,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T22" t="n">
-        <v>728.1289842064342</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U22" t="n">
-        <v>438.9553738610022</v>
+        <v>500.820796875036</v>
       </c>
       <c r="V22" t="n">
-        <v>438.9553738610022</v>
+        <v>246.1363086691491</v>
       </c>
       <c r="W22" t="n">
-        <v>149.5382038240415</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X22" t="n">
-        <v>149.5382038240415</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y22" t="n">
-        <v>149.5382038240415</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="23">
@@ -5965,37 +5965,37 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1626.94664591678</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="C23" t="n">
-        <v>1626.94664591678</v>
+        <v>940.7524019189439</v>
       </c>
       <c r="D23" t="n">
-        <v>1268.680947310029</v>
+        <v>940.7524019189439</v>
       </c>
       <c r="E23" t="n">
-        <v>882.8926947117851</v>
+        <v>940.7524019189439</v>
       </c>
       <c r="F23" t="n">
-        <v>471.9067899221776</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G23" t="n">
-        <v>53.94298182036444</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H23" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I23" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J23" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K23" t="n">
-        <v>463.9616490733123</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L23" t="n">
-        <v>881.2824271224072</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M23" t="n">
         <v>1362.238747280443</v>
@@ -6013,28 +6013,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R23" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S23" t="n">
-        <v>2642.120401548715</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T23" t="n">
-        <v>2642.120401548715</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U23" t="n">
-        <v>2388.358616186807</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V23" t="n">
-        <v>2057.295728843236</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W23" t="n">
-        <v>1704.527073573122</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X23" t="n">
-        <v>1704.527073573122</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="Y23" t="n">
-        <v>1704.527073573122</v>
+        <v>1309.714918859356</v>
       </c>
     </row>
     <row r="24">
@@ -6044,49 +6044,49 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C24" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D24" t="n">
-        <v>665.1105362747043</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E24" t="n">
-        <v>505.8730812692488</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F24" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G24" t="n">
-        <v>221.4284102423999</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H24" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I24" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J24" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K24" t="n">
-        <v>309.1903022614629</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L24" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M24" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N24" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O24" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P24" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q24" t="n">
         <v>2697.149091018222</v>
@@ -6107,10 +6107,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W24" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X24" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y24" t="n">
         <v>1156.713312237151</v>
@@ -6123,31 +6123,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C25" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D25" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E25" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F25" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G25" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H25" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I25" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J25" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K25" t="n">
         <v>110.2451748866326</v>
@@ -6180,19 +6180,19 @@
         <v>728.1289842064342</v>
       </c>
       <c r="U25" t="n">
-        <v>598.0446400632119</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V25" t="n">
         <v>343.360151857325</v>
       </c>
       <c r="W25" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X25" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y25" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="26">
@@ -6202,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>934.637173372437</v>
+        <v>1567.641263708175</v>
       </c>
       <c r="C26" t="n">
-        <v>565.6746564320254</v>
+        <v>1536.177557778964</v>
       </c>
       <c r="D26" t="n">
-        <v>207.4089578252748</v>
+        <v>1177.911859172214</v>
       </c>
       <c r="E26" t="n">
-        <v>207.4089578252748</v>
+        <v>792.1236065739693</v>
       </c>
       <c r="F26" t="n">
-        <v>207.4089578252748</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="G26" t="n">
-        <v>207.4089578252748</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H26" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I26" t="n">
         <v>53.94298182036445</v>
@@ -6229,10 +6229,10 @@
         <v>169.7108380533142</v>
       </c>
       <c r="K26" t="n">
-        <v>463.9616490733125</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L26" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M26" t="n">
         <v>1362.238747280443</v>
@@ -6250,28 +6250,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R26" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S26" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T26" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U26" t="n">
-        <v>2388.358616186807</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V26" t="n">
-        <v>2057.295728843236</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W26" t="n">
-        <v>2057.295728843236</v>
+        <v>2344.380435748108</v>
       </c>
       <c r="X26" t="n">
-        <v>1683.829970582156</v>
+        <v>2344.380435748108</v>
       </c>
       <c r="Y26" t="n">
-        <v>1321.237013436559</v>
+        <v>1954.241103772296</v>
       </c>
     </row>
     <row r="27">
@@ -6281,22 +6281,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C27" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D27" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E27" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F27" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G27" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H27" t="n">
         <v>115.9856282673424</v>
@@ -6308,22 +6308,22 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K27" t="n">
-        <v>266.206002764199</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L27" t="n">
-        <v>670.8219208598708</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M27" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N27" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O27" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P27" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q27" t="n">
         <v>2697.149091018222</v>
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>257.0633493392339</v>
+        <v>222.942782082032</v>
       </c>
       <c r="C28" t="n">
-        <v>257.0633493392339</v>
+        <v>222.942782082032</v>
       </c>
       <c r="D28" t="n">
-        <v>257.0633493392339</v>
+        <v>222.942782082032</v>
       </c>
       <c r="E28" t="n">
-        <v>109.1502557568408</v>
+        <v>222.942782082032</v>
       </c>
       <c r="F28" t="n">
-        <v>109.1502557568408</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G28" t="n">
         <v>53.94298182036445</v>
@@ -6417,19 +6417,19 @@
         <v>728.1289842064342</v>
       </c>
       <c r="U28" t="n">
-        <v>728.1289842064342</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V28" t="n">
-        <v>728.1289842064342</v>
+        <v>222.942782082032</v>
       </c>
       <c r="W28" t="n">
-        <v>438.7118141694736</v>
+        <v>222.942782082032</v>
       </c>
       <c r="X28" t="n">
-        <v>438.7118141694736</v>
+        <v>222.942782082032</v>
       </c>
       <c r="Y28" t="n">
-        <v>438.7118141694736</v>
+        <v>222.942782082032</v>
       </c>
     </row>
     <row r="29">
@@ -6439,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1386.090004781549</v>
+        <v>1577.945354755378</v>
       </c>
       <c r="C29" t="n">
-        <v>1017.127487841138</v>
+        <v>1208.982837814967</v>
       </c>
       <c r="D29" t="n">
-        <v>1017.127487841138</v>
+        <v>850.7171392082162</v>
       </c>
       <c r="E29" t="n">
-        <v>631.3392352428932</v>
+        <v>464.928886609972</v>
       </c>
       <c r="F29" t="n">
-        <v>631.3392352428932</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G29" t="n">
-        <v>213.3754271410801</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H29" t="n">
         <v>53.94298182036445</v>
@@ -6463,19 +6463,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J29" t="n">
-        <v>169.7108380533141</v>
+        <v>169.710838053314</v>
       </c>
       <c r="K29" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733125</v>
       </c>
       <c r="L29" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M29" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N29" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O29" t="n">
         <v>2238.843319642689</v>
@@ -6487,28 +6487,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R29" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S29" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T29" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U29" t="n">
-        <v>2443.387305656314</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V29" t="n">
-        <v>2112.324418312743</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W29" t="n">
-        <v>1759.555763042629</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X29" t="n">
-        <v>1386.090004781549</v>
+        <v>2354.684526795312</v>
       </c>
       <c r="Y29" t="n">
-        <v>1386.090004781549</v>
+        <v>1964.5451948195</v>
       </c>
     </row>
     <row r="30">
@@ -6518,25 +6518,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C30" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D30" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E30" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F30" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G30" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H30" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I30" t="n">
         <v>53.94298182036445</v>
@@ -6548,10 +6548,10 @@
         <v>309.190302261463</v>
       </c>
       <c r="L30" t="n">
-        <v>670.8219208598708</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M30" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N30" t="n">
         <v>1748.695370517453</v>
@@ -6563,22 +6563,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q30" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R30" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S30" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T30" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U30" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V30" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W30" t="n">
         <v>1572.325111207638</v>
@@ -6657,7 +6657,7 @@
         <v>438.9553738610022</v>
       </c>
       <c r="V31" t="n">
-        <v>184.2708856551153</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W31" t="n">
         <v>53.94298182036445</v>
@@ -6676,34 +6676,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1369.416431066817</v>
+        <v>1321.530002831497</v>
       </c>
       <c r="C32" t="n">
-        <v>1000.453914126405</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="D32" t="n">
-        <v>882.8926947117851</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="E32" t="n">
-        <v>882.8926947117851</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="F32" t="n">
-        <v>471.9067899221776</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G32" t="n">
-        <v>53.94298182036444</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H32" t="n">
-        <v>53.94298182036444</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I32" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J32" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K32" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L32" t="n">
         <v>881.2824271224075</v>
@@ -6724,28 +6724,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R32" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S32" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T32" t="n">
-        <v>2697.149091018222</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U32" t="n">
-        <v>2443.387305656313</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V32" t="n">
-        <v>2112.324418312743</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="W32" t="n">
-        <v>1759.555763042629</v>
+        <v>1485.892406545185</v>
       </c>
       <c r="X32" t="n">
-        <v>1759.555763042629</v>
+        <v>1485.892406545185</v>
       </c>
       <c r="Y32" t="n">
-        <v>1369.416431066817</v>
+        <v>1485.892406545185</v>
       </c>
     </row>
     <row r="33">
@@ -6755,49 +6755,49 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C33" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D33" t="n">
-        <v>665.1105362747043</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E33" t="n">
-        <v>505.8730812692488</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F33" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G33" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H33" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I33" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J33" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K33" t="n">
-        <v>266.2060027641985</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L33" t="n">
-        <v>670.8219208598704</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M33" t="n">
-        <v>1194.968834417901</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N33" t="n">
-        <v>1748.695370517452</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O33" t="n">
-        <v>2188.831293537796</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P33" t="n">
-        <v>2525.076107152625</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q33" t="n">
         <v>2697.149091018222</v>
@@ -6818,10 +6818,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W33" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X33" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y33" t="n">
         <v>1156.713312237151</v>
@@ -6834,31 +6834,31 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>149.5382038240415</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C34" t="n">
-        <v>149.5382038240415</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D34" t="n">
-        <v>149.5382038240415</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E34" t="n">
-        <v>149.5382038240415</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F34" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G34" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H34" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I34" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J34" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K34" t="n">
         <v>110.2451748866326</v>
@@ -6888,22 +6888,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T34" t="n">
-        <v>728.1289842064342</v>
+        <v>632.5337622027571</v>
       </c>
       <c r="U34" t="n">
-        <v>438.9553738610022</v>
+        <v>343.360151857325</v>
       </c>
       <c r="V34" t="n">
-        <v>438.9553738610022</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W34" t="n">
-        <v>149.5382038240415</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X34" t="n">
-        <v>149.5382038240415</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y34" t="n">
-        <v>149.5382038240415</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="35">
@@ -6913,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1626.94664591678</v>
+        <v>1954.141365880777</v>
       </c>
       <c r="C35" t="n">
-        <v>1626.94664591678</v>
+        <v>1954.141365880777</v>
       </c>
       <c r="D35" t="n">
-        <v>1268.68094731003</v>
+        <v>1595.875667274027</v>
       </c>
       <c r="E35" t="n">
-        <v>882.8926947117852</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="F35" t="n">
-        <v>471.9067899221776</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G35" t="n">
-        <v>53.94298182036445</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H35" t="n">
         <v>53.94298182036445</v>
@@ -6937,10 +6937,10 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J35" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K35" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L35" t="n">
         <v>881.2824271224076</v>
@@ -6964,25 +6964,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S35" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T35" t="n">
-        <v>2247.308246834948</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U35" t="n">
-        <v>2017.085977892592</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V35" t="n">
-        <v>2017.085977892592</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="W35" t="n">
-        <v>2017.085977892592</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="X35" t="n">
-        <v>2017.085977892592</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="Y35" t="n">
-        <v>1626.94664591678</v>
+        <v>2169.72394915887</v>
       </c>
     </row>
     <row r="36">
@@ -6992,25 +6992,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C36" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D36" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E36" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F36" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G36" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H36" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I36" t="n">
         <v>53.94298182036445</v>
@@ -7040,19 +7040,19 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R36" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S36" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T36" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U36" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V36" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W36" t="n">
         <v>1572.325111207638</v>
@@ -7071,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>53.94298182036445</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="C37" t="n">
-        <v>53.94298182036445</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="D37" t="n">
-        <v>53.94298182036445</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="E37" t="n">
-        <v>53.94298182036445</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="F37" t="n">
-        <v>53.94298182036445</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="G37" t="n">
         <v>53.94298182036445</v>
@@ -7131,16 +7131,16 @@
         <v>438.9553738610022</v>
       </c>
       <c r="V37" t="n">
-        <v>184.2708856551153</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="W37" t="n">
-        <v>184.2708856551153</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="X37" t="n">
-        <v>53.94298182036445</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="Y37" t="n">
-        <v>53.94298182036445</v>
+        <v>149.5382038240415</v>
       </c>
     </row>
     <row r="38">
@@ -7150,37 +7150,37 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1626.94664591678</v>
+        <v>1646.746562480845</v>
       </c>
       <c r="C38" t="n">
-        <v>1626.94664591678</v>
+        <v>1646.746562480845</v>
       </c>
       <c r="D38" t="n">
-        <v>1268.680947310029</v>
+        <v>1288.480863874094</v>
       </c>
       <c r="E38" t="n">
-        <v>882.8926947117851</v>
+        <v>1288.480863874094</v>
       </c>
       <c r="F38" t="n">
-        <v>471.9067899221776</v>
+        <v>877.4949590844869</v>
       </c>
       <c r="G38" t="n">
-        <v>53.94298182036444</v>
+        <v>459.5311509826738</v>
       </c>
       <c r="H38" t="n">
-        <v>53.94298182036444</v>
+        <v>132.3364310186766</v>
       </c>
       <c r="I38" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J38" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K38" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L38" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M38" t="n">
         <v>1362.238747280443</v>
@@ -7198,28 +7198,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R38" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S38" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T38" t="n">
-        <v>2642.120401548715</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U38" t="n">
-        <v>2642.120401548715</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="V38" t="n">
-        <v>2311.057514205144</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="W38" t="n">
-        <v>2311.057514205144</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="X38" t="n">
-        <v>1937.591755944065</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="Y38" t="n">
-        <v>1626.94664591678</v>
+        <v>2033.346402544967</v>
       </c>
     </row>
     <row r="39">
@@ -7229,19 +7229,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C39" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D39" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E39" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F39" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G39" t="n">
         <v>221.4284102424006</v>
@@ -7250,28 +7250,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I39" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J39" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K39" t="n">
-        <v>384.4474646615928</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L39" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M39" t="n">
-        <v>1194.968834417901</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N39" t="n">
-        <v>1748.695370517452</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O39" t="n">
-        <v>2188.831293537796</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P39" t="n">
-        <v>2525.076107152625</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q39" t="n">
         <v>2697.149091018222</v>
@@ -7280,16 +7280,16 @@
         <v>2646.935720430048</v>
       </c>
       <c r="S39" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T39" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U39" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V39" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W39" t="n">
         <v>1572.325111207638</v>
@@ -7308,31 +7308,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C40" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D40" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E40" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F40" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G40" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H40" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I40" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J40" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K40" t="n">
         <v>110.2451748866326</v>
@@ -7362,22 +7362,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T40" t="n">
-        <v>728.1289842064342</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U40" t="n">
-        <v>438.9553738610022</v>
+        <v>211.6471865296039</v>
       </c>
       <c r="V40" t="n">
-        <v>184.2708856551153</v>
+        <v>211.6471865296039</v>
       </c>
       <c r="W40" t="n">
-        <v>53.94298182036444</v>
+        <v>211.6471865296039</v>
       </c>
       <c r="X40" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y40" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="41">
@@ -7387,37 +7387,37 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>882.8926947117851</v>
+        <v>1190.010945960184</v>
       </c>
       <c r="C41" t="n">
-        <v>882.8926947117851</v>
+        <v>821.0484290197721</v>
       </c>
       <c r="D41" t="n">
-        <v>882.8926947117851</v>
+        <v>462.7827304130216</v>
       </c>
       <c r="E41" t="n">
-        <v>882.8926947117851</v>
+        <v>76.99447781477738</v>
       </c>
       <c r="F41" t="n">
-        <v>471.9067899221776</v>
+        <v>76.99447781477738</v>
       </c>
       <c r="G41" t="n">
-        <v>53.94298182036444</v>
+        <v>76.99447781477738</v>
       </c>
       <c r="H41" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I41" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J41" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K41" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L41" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M41" t="n">
         <v>1362.238747280443</v>
@@ -7435,28 +7435,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R41" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S41" t="n">
-        <v>2642.120401548715</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T41" t="n">
-        <v>2642.120401548715</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U41" t="n">
-        <v>2388.358616186807</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V41" t="n">
-        <v>2057.295728843236</v>
+        <v>1916.245359491378</v>
       </c>
       <c r="W41" t="n">
-        <v>1704.527073573122</v>
+        <v>1563.476704221264</v>
       </c>
       <c r="X41" t="n">
-        <v>1331.061315312042</v>
+        <v>1190.010945960184</v>
       </c>
       <c r="Y41" t="n">
-        <v>940.9219833362301</v>
+        <v>1190.010945960184</v>
       </c>
     </row>
     <row r="42">
@@ -7466,49 +7466,49 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>988.4979752170821</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C42" t="n">
-        <v>814.0449459359551</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D42" t="n">
-        <v>665.1105362747037</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E42" t="n">
-        <v>505.8730812692481</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F42" t="n">
-        <v>359.3385232961333</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G42" t="n">
-        <v>221.4284102423999</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H42" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I42" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J42" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K42" t="n">
-        <v>384.4474646615928</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L42" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M42" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N42" t="n">
-        <v>1748.695370517452</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O42" t="n">
-        <v>2188.831293537796</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P42" t="n">
-        <v>2525.076107152625</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q42" t="n">
         <v>2697.149091018222</v>
@@ -7517,16 +7517,16 @@
         <v>2646.935720430047</v>
       </c>
       <c r="S42" t="n">
-        <v>2488.762748073962</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T42" t="n">
-        <v>2289.884200196741</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U42" t="n">
-        <v>2061.714576167581</v>
+        <v>2061.714576167582</v>
       </c>
       <c r="V42" t="n">
-        <v>1826.562467935838</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W42" t="n">
         <v>1572.325111207637</v>
@@ -7535,7 +7535,7 @@
         <v>1364.473611002104</v>
       </c>
       <c r="Y42" t="n">
-        <v>1156.71331223715</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="43">
@@ -7545,31 +7545,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>149.5382038240415</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C43" t="n">
-        <v>149.5382038240415</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D43" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E43" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F43" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G43" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H43" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I43" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J43" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K43" t="n">
         <v>110.2451748866326</v>
@@ -7605,16 +7605,16 @@
         <v>438.9553738610022</v>
       </c>
       <c r="V43" t="n">
-        <v>438.9553738610022</v>
+        <v>184.2708856551153</v>
       </c>
       <c r="W43" t="n">
-        <v>149.5382038240415</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X43" t="n">
-        <v>149.5382038240415</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y43" t="n">
-        <v>149.5382038240415</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="44">
@@ -7624,25 +7624,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1526.329725433337</v>
+        <v>565.6746564320254</v>
       </c>
       <c r="C44" t="n">
-        <v>1157.367208492925</v>
+        <v>565.6746564320254</v>
       </c>
       <c r="D44" t="n">
-        <v>799.1015098861747</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="E44" t="n">
-        <v>799.1015098861747</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="F44" t="n">
-        <v>799.1015098861747</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="G44" t="n">
-        <v>381.1377017843616</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H44" t="n">
-        <v>53.94298182036444</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I44" t="n">
         <v>53.94298182036444</v>
@@ -7672,28 +7672,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R44" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S44" t="n">
-        <v>2642.120401548715</v>
+        <v>2520.971603332392</v>
       </c>
       <c r="T44" t="n">
-        <v>2463.92305340893</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U44" t="n">
-        <v>2210.161268047022</v>
+        <v>2048.575150942546</v>
       </c>
       <c r="V44" t="n">
-        <v>1879.098380703451</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="W44" t="n">
-        <v>1526.329725433337</v>
+        <v>1364.743608328861</v>
       </c>
       <c r="X44" t="n">
-        <v>1526.329725433337</v>
+        <v>991.2778500677816</v>
       </c>
       <c r="Y44" t="n">
-        <v>1526.329725433337</v>
+        <v>952.2744964961471</v>
       </c>
     </row>
     <row r="45">
@@ -7703,25 +7703,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C45" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D45" t="n">
-        <v>665.1105362747043</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E45" t="n">
-        <v>505.8730812692488</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F45" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G45" t="n">
-        <v>221.4284102423999</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H45" t="n">
-        <v>115.9856282673417</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I45" t="n">
         <v>53.94298182036444</v>
@@ -7739,37 +7739,37 @@
         <v>1237.953133915166</v>
       </c>
       <c r="N45" t="n">
-        <v>1748.695370517452</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O45" t="n">
-        <v>2188.831293537796</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P45" t="n">
-        <v>2525.076107152625</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q45" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R45" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S45" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T45" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U45" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V45" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W45" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X45" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y45" t="n">
         <v>1156.713312237151</v>
@@ -7782,16 +7782,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>53.94298182036444</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="C46" t="n">
-        <v>53.94298182036444</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="D46" t="n">
-        <v>53.94298182036444</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E46" t="n">
-        <v>53.94298182036444</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F46" t="n">
         <v>53.94298182036444</v>
@@ -7836,22 +7836,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T46" t="n">
-        <v>500.820796875036</v>
+        <v>603.4305111065548</v>
       </c>
       <c r="U46" t="n">
-        <v>211.6471865296039</v>
+        <v>603.4305111065548</v>
       </c>
       <c r="V46" t="n">
-        <v>211.6471865296039</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="W46" t="n">
-        <v>53.94298182036444</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="X46" t="n">
-        <v>53.94298182036444</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="Y46" t="n">
-        <v>53.94298182036444</v>
+        <v>348.7460229006679</v>
       </c>
     </row>
   </sheetData>
@@ -8069,7 +8069,7 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N3" t="n">
-        <v>372.3560009609923</v>
+        <v>349.0484638974528</v>
       </c>
       <c r="O3" t="n">
         <v>383.6105333221035</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>186.7697506723097</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8297,16 +8297,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M6" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N6" t="n">
-        <v>186.8580120236956</v>
+        <v>222.4246658592332</v>
       </c>
       <c r="O6" t="n">
         <v>383.6105333221035</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8537,19 +8537,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M9" t="n">
-        <v>312.04082470182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N9" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O9" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>238.6269471880057</v>
       </c>
       <c r="Q9" t="n">
         <v>139.9817740860215</v>
@@ -8768,28 +8768,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>119.7207117878867</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>125.6774978810001</v>
+        <v>142.6317767593718</v>
       </c>
       <c r="L12" t="n">
-        <v>122.1984598562864</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
         <v>399.2039605324505</v>
       </c>
       <c r="N12" t="n">
-        <v>387.9064735273547</v>
+        <v>387.9064735273546</v>
       </c>
       <c r="O12" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>119.5899201578276</v>
       </c>
       <c r="Q12" t="n">
-        <v>203.4597646898142</v>
+        <v>130.3661252938572</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9005,13 +9005,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>84.40768042974389</v>
+        <v>84.40768042974378</v>
       </c>
       <c r="K15" t="n">
-        <v>65.32190271305328</v>
+        <v>65.32190271305306</v>
       </c>
       <c r="L15" t="n">
-        <v>370.8403453034592</v>
+        <v>275.856897400044</v>
       </c>
       <c r="M15" t="n">
         <v>465.7050637499999</v>
@@ -9023,7 +9023,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>223.4793207365215</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
@@ -9254,13 +9254,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O18" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>199.0269485415591</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
@@ -9479,10 +9479,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>221.0467526719075</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
@@ -9491,7 +9491,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O21" t="n">
         <v>393.8623192767295</v>
@@ -9716,10 +9716,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>50.07369958270195</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719079</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
@@ -9737,7 +9737,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>166.6588033951776</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9877,13 +9877,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
-        <v>324.1454125711646</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N26" t="n">
         <v>437.3469244119842</v>
@@ -9953,10 +9953,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>50.07369958270195</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K27" t="n">
-        <v>221.0467526719079</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
@@ -9974,7 +9974,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10111,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K29" t="n">
         <v>324.1454125711647</v>
@@ -10190,19 +10190,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>50.07369958270195</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>327.4218609627885</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
-        <v>479.3423743435536</v>
+        <v>435.923890002883</v>
       </c>
       <c r="O30" t="n">
         <v>393.8623192767295</v>
@@ -10427,10 +10427,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K33" t="n">
-        <v>145.0294169142005</v>
+        <v>221.0467526719079</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
@@ -10843,7 +10843,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599048</v>
       </c>
       <c r="R38" t="n">
         <v>65.71641987298243</v>
@@ -10901,16 +10901,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719079</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>346.2692436516219</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
         <v>479.3423743435536</v>
@@ -11080,7 +11080,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599048</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11138,10 +11138,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719079</v>
       </c>
       <c r="L42" t="n">
         <v>370.8403453034592</v>
@@ -11150,7 +11150,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
-        <v>359.9065542451751</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
         <v>393.8623192767295</v>
@@ -11387,7 +11387,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
-        <v>435.9238900028821</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
         <v>393.8623192767295</v>
@@ -11396,7 +11396,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22555,16 +22555,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>169.6449844288198</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H2" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
         <v>210.4758895704059</v>
@@ -22591,25 +22591,25 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0958495641314</v>
+        <v>138.6760617849701</v>
       </c>
       <c r="U2" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -22631,7 +22631,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>117.6460565997561</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
@@ -22679,7 +22679,7 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>170.3657197299391</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -22761,13 +22761,13 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U4" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -22786,13 +22786,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>124.2586028933485</v>
+        <v>294.9288839697323</v>
       </c>
       <c r="D5" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -22831,19 +22831,19 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
-        <v>20.80116313523413</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -22865,7 +22865,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
@@ -22877,16 +22877,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>39.98530963524254</v>
       </c>
       <c r="H6" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>78.37935568991773</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22910,28 +22910,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -22983,7 +22983,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
         <v>86.16204325169439</v>
@@ -22992,7 +22992,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S7" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T7" t="n">
         <v>227.9455894282815</v>
@@ -23001,7 +23001,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V7" t="n">
-        <v>121.6721164735665</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -23020,7 +23020,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -23032,13 +23032,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>344.4597780394191</v>
       </c>
       <c r="G8" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H8" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
         <v>210.4758895704059</v>
@@ -23071,13 +23071,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>128.6853625704253</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -23086,7 +23086,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -23099,22 +23099,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>74.23467414969659</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>112.2354442364965</v>
@@ -23123,7 +23123,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23150,16 +23150,16 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
         <v>251.6949831609196</v>
@@ -23168,7 +23168,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>197.0990017157023</v>
       </c>
     </row>
     <row r="10">
@@ -23232,13 +23232,13 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T10" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U10" t="n">
         <v>286.3190293564909</v>
       </c>
       <c r="V10" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -23260,25 +23260,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>89.11637806865207</v>
       </c>
       <c r="D11" t="n">
-        <v>333.923930121617</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>105.7738563699063</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>343.8633866767784</v>
       </c>
       <c r="G11" t="n">
-        <v>139.005434824964</v>
+        <v>415.1619485273195</v>
       </c>
       <c r="H11" t="n">
-        <v>338.0329468943008</v>
+        <v>61.87643319194535</v>
       </c>
       <c r="I11" t="n">
-        <v>205.0481221176458</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23311,10 +23311,10 @@
         <v>205.8118405263978</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>222.4795457699687</v>
       </c>
       <c r="U11" t="n">
-        <v>251.3343897888113</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -23323,7 +23323,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>93.57458697611355</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -23336,28 +23336,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>97.83304425246973</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>137.2681884137393</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
         <v>111.5079271034444</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>86.80307722268739</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23384,22 +23384,22 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>95.48084390037957</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>170.2839726213331</v>
       </c>
       <c r="T12" t="n">
-        <v>199.8611009721718</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>225.9364262421938</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>129.829086706809</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
@@ -23469,10 +23469,10 @@
         <v>222.9160118599466</v>
       </c>
       <c r="T13" t="n">
-        <v>52.54455953715788</v>
+        <v>227.6757534850358</v>
       </c>
       <c r="U13" t="n">
-        <v>286.3155846423218</v>
+        <v>111.1843906944439</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -23494,28 +23494,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>392.0547108617935</v>
       </c>
       <c r="H14" t="n">
-        <v>8.453940867156803</v>
+        <v>330.8786841952548</v>
       </c>
       <c r="I14" t="n">
-        <v>178.1163791463315</v>
+        <v>178.1163791463314</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23542,28 +23542,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>97.14353343492407</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>189.8931039215389</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>219.4215416234949</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>251.2785039334788</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -23576,16 +23576,16 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>169.147068804253</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>21.0949784433916</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
         <v>136.8944188046378</v>
@@ -23594,7 +23594,7 @@
         <v>107.898099562911</v>
       </c>
       <c r="I15" t="n">
-        <v>73.93425515493655</v>
+        <v>73.93425515493651</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23621,10 +23621,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>72.27434132826724</v>
       </c>
       <c r="S15" t="n">
-        <v>163.3413660663109</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
@@ -23636,7 +23636,7 @@
         <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
@@ -23673,10 +23673,10 @@
         <v>158.8796654153679</v>
       </c>
       <c r="I16" t="n">
-        <v>144.1278231270812</v>
+        <v>144.1278231270811</v>
       </c>
       <c r="J16" t="n">
-        <v>66.73999539781629</v>
+        <v>66.73999539781622</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23697,7 +23697,7 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>54.6345505880211</v>
+        <v>54.63455058802101</v>
       </c>
       <c r="R16" t="n">
         <v>160.3641786191054</v>
@@ -23718,10 +23718,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>60.3140138934163</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>53.18901185647303</v>
       </c>
     </row>
     <row r="17">
@@ -23731,19 +23731,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>322.7455796081784</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>182.5948585597083</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
         <v>413.784170020795</v>
@@ -23752,7 +23752,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23785,10 +23785,10 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -23800,7 +23800,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -23889,19 +23889,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>53.28523739465275</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>59.54933966209472</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>167.3098022590509</v>
@@ -23910,10 +23910,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I19" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J19" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23934,7 +23934,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R19" t="n">
         <v>146.6651919801579</v>
@@ -23943,7 +23943,7 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U19" t="n">
         <v>286.2818742419777</v>
@@ -23952,7 +23952,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -23968,16 +23968,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>11.29458122893925</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -23989,7 +23989,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24016,7 +24016,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S20" t="n">
         <v>174.4157128089715</v>
@@ -24031,7 +24031,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>216.9008284573941</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -24135,7 +24135,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>51.79469286292884</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24147,10 +24147,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I22" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J22" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24171,7 +24171,7 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R22" t="n">
         <v>146.6651919801579</v>
@@ -24180,16 +24180,16 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T22" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>96.25160475629423</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -24205,25 +24205,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>305.929218283702</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>266.6416626292701</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>151.9313162448613</v>
@@ -24256,10 +24256,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -24384,10 +24384,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I25" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J25" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24408,7 +24408,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R25" t="n">
         <v>146.6651919801579</v>
@@ -24420,10 +24420,10 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U25" t="n">
-        <v>157.4983735401876</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>157.4983735401877</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24445,25 +24445,25 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>334.1238229010891</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H26" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24490,7 +24490,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S26" t="n">
         <v>174.4157128089715</v>
@@ -24499,19 +24499,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>27.27091108191195</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24609,22 +24609,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>112.6546010619393</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I28" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J28" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24645,7 +24645,7 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R28" t="n">
         <v>146.6651919801579</v>
@@ -24657,13 +24657,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>38.2851774626476</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -24679,25 +24679,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H29" t="n">
-        <v>166.0846518968487</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I29" t="n">
         <v>151.9313162448613</v>
@@ -24727,7 +24727,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>174.4157128089715</v>
@@ -24736,19 +24736,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>85.16958467259929</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24858,10 +24858,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I31" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J31" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24882,7 +24882,7 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R31" t="n">
         <v>146.6651919801579</v>
@@ -24897,10 +24897,10 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>157.4983735401877</v>
       </c>
       <c r="W31" t="n">
-        <v>157.4983735401877</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -24916,28 +24916,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>220.0150619869294</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>238.2974344002091</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24964,13 +24964,13 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T32" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -24985,7 +24985,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -25086,7 +25086,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>50.78177823929092</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>167.3098022590509</v>
@@ -25128,7 +25128,7 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T34" t="n">
-        <v>225.0351054580843</v>
+        <v>130.3958356744439</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25153,7 +25153,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>169.3070842181689</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -25171,7 +25171,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>151.9313162448613</v>
@@ -25204,13 +25204,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>23.30412125535611</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -25222,7 +25222,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -25326,7 +25326,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>167.3098022590509</v>
+        <v>72.6705324754106</v>
       </c>
       <c r="H37" t="n">
         <v>156.1708888417951</v>
@@ -25371,13 +25371,13 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>96.68503059263384</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25390,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -25399,7 +25399,7 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -25408,10 +25408,10 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>151.9313162448613</v>
+        <v>74.32180153853218</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25444,22 +25444,22 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T38" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>78.69927972904168</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25517,7 +25517,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>8.029132914089132e-13</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -25602,19 +25602,19 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T40" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>157.4983735401877</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>69.58249272689008</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25627,25 +25627,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>325.28484592528</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H41" t="n">
-        <v>323.9227727643571</v>
+        <v>301.1017917298884</v>
       </c>
       <c r="I41" t="n">
         <v>151.9313162448613</v>
@@ -25678,13 +25678,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -25696,7 +25696,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -25791,7 +25791,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>53.97620323457203</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25845,10 +25845,10 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>157.4983735401877</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -25864,10 +25864,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -25879,13 +25879,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I44" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25912,13 +25912,13 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S44" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>40.03294569927073</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -25930,10 +25930,10 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>347.6246186201354</v>
       </c>
     </row>
     <row r="45">
@@ -25991,7 +25991,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>8.100187187665142e-13</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -26031,10 +26031,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>167.3098022590509</v>
@@ -26076,16 +26076,16 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>101.5836170892037</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>130.3958356744439</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>482104.1301211515</v>
+        <v>482104.1301211513</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>482104.1301211515</v>
+        <v>482104.1301211513</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>482104.1301211515</v>
+        <v>482104.1301211516</v>
       </c>
     </row>
     <row r="5">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>666195.368022756</v>
+        <v>666195.3680227567</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>816143.6851837528</v>
+        <v>816143.6851837529</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>816143.6851837528</v>
+        <v>816143.6851837529</v>
       </c>
     </row>
     <row r="9">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>816143.6851837529</v>
+        <v>816143.6851837528</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>816143.6851837529</v>
+        <v>816143.685183753</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>816143.6851837529</v>
+        <v>816143.6851837528</v>
       </c>
     </row>
     <row r="16">
@@ -26322,13 +26322,13 @@
         <v>132928.5380250659</v>
       </c>
       <c r="E2" t="n">
-        <v>141745.4664845208</v>
+        <v>141745.4664845207</v>
       </c>
       <c r="F2" t="n">
-        <v>187164.7872550202</v>
+        <v>187164.7872550204</v>
       </c>
       <c r="G2" t="n">
-        <v>231322.088012606</v>
+        <v>231322.0880126062</v>
       </c>
       <c r="H2" t="n">
         <v>231322.0880126061</v>
@@ -26337,10 +26337,10 @@
         <v>231322.0880126061</v>
       </c>
       <c r="J2" t="n">
+        <v>231322.0880126061</v>
+      </c>
+      <c r="K2" t="n">
         <v>231322.0880126062</v>
-      </c>
-      <c r="K2" t="n">
-        <v>231322.0880126061</v>
       </c>
       <c r="L2" t="n">
         <v>231322.0880126061</v>
@@ -26349,7 +26349,7 @@
         <v>231322.0880126061</v>
       </c>
       <c r="N2" t="n">
-        <v>231322.0880126061</v>
+        <v>231322.0880126062</v>
       </c>
       <c r="O2" t="n">
         <v>231322.0880126061</v>
@@ -26377,10 +26377,10 @@
         <v>38628.88112923565</v>
       </c>
       <c r="F3" t="n">
-        <v>195194.8921689315</v>
+        <v>195194.8921689321</v>
       </c>
       <c r="G3" t="n">
-        <v>185152.0893328036</v>
+        <v>185152.0893328031</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>63059.94259910626</v>
+        <v>63059.94259910623</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,13 +26398,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>8757.582995213648</v>
+        <v>8757.582995213663</v>
       </c>
       <c r="N3" t="n">
-        <v>49441.87186138636</v>
+        <v>49441.87186138646</v>
       </c>
       <c r="O3" t="n">
-        <v>47231.86264112672</v>
+        <v>47231.86264112661</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26481,7 +26481,7 @@
         <v>17553.77951678015</v>
       </c>
       <c r="F5" t="n">
-        <v>33615.28060221567</v>
+        <v>33615.28060221572</v>
       </c>
       <c r="G5" t="n">
         <v>49231.47806340946</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-41990.01967454163</v>
+        <v>-30993.81011650525</v>
       </c>
       <c r="C6" t="n">
-        <v>38779.4118570061</v>
+        <v>49775.62141504246</v>
       </c>
       <c r="D6" t="n">
-        <v>38779.41185700607</v>
+        <v>49775.62141504249</v>
       </c>
       <c r="E6" t="n">
-        <v>40118.69278574994</v>
+        <v>50618.95011794194</v>
       </c>
       <c r="F6" t="n">
-        <v>-85349.55433693813</v>
+        <v>-77404.13379808713</v>
       </c>
       <c r="G6" t="n">
-        <v>-45074.63976969311</v>
+        <v>-39613.06739845513</v>
       </c>
       <c r="H6" t="n">
-        <v>140077.4495631106</v>
+        <v>145539.0219343479</v>
       </c>
       <c r="I6" t="n">
-        <v>140077.4495631106</v>
+        <v>145539.0219343479</v>
       </c>
       <c r="J6" t="n">
-        <v>77017.50696400442</v>
+        <v>82479.07933524161</v>
       </c>
       <c r="K6" t="n">
-        <v>140077.4495631106</v>
+        <v>145539.021934348</v>
       </c>
       <c r="L6" t="n">
-        <v>140077.4495631107</v>
+        <v>145539.0219343479</v>
       </c>
       <c r="M6" t="n">
-        <v>131319.8665678969</v>
+        <v>136781.4389391342</v>
       </c>
       <c r="N6" t="n">
-        <v>90635.57770172425</v>
+        <v>96097.15007296149</v>
       </c>
       <c r="O6" t="n">
-        <v>92845.58692198392</v>
+        <v>98307.15929322125</v>
       </c>
       <c r="P6" t="n">
-        <v>140077.4495631106</v>
+        <v>145539.0219343479</v>
       </c>
     </row>
   </sheetData>
@@ -26749,7 +26749,7 @@
         <v>35.02126071912533</v>
       </c>
       <c r="F3" t="n">
-        <v>208.7913421435317</v>
+        <v>208.7913421435323</v>
       </c>
       <c r="G3" t="n">
         <v>377.7436642170866</v>
@@ -26801,16 +26801,16 @@
         <v>276.1565137023555</v>
       </c>
       <c r="F4" t="n">
-        <v>478.0202194652414</v>
+        <v>478.020219465242</v>
       </c>
       <c r="G4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="H4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="I4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="J4" t="n">
         <v>674.2872727545556</v>
@@ -26819,16 +26819,16 @@
         <v>674.2872727545556</v>
       </c>
       <c r="L4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="M4" t="n">
         <v>674.2872727545556</v>
       </c>
       <c r="N4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="O4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="P4" t="n">
         <v>674.2872727545555</v>
@@ -26971,10 +26971,10 @@
         <v>35.02126071912533</v>
       </c>
       <c r="F3" t="n">
-        <v>173.7700814244063</v>
+        <v>173.7700814244069</v>
       </c>
       <c r="G3" t="n">
-        <v>168.9523220735549</v>
+        <v>168.9523220735544</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27023,10 +27023,10 @@
         <v>35.14222482469643</v>
       </c>
       <c r="F4" t="n">
-        <v>201.8637057628859</v>
+        <v>201.8637057628865</v>
       </c>
       <c r="G4" t="n">
-        <v>196.2670532893141</v>
+        <v>196.2670532893136</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>241.0142888776592</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,13 +27044,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>35.14222482469643</v>
+        <v>35.14222482469648</v>
       </c>
       <c r="N4" t="n">
-        <v>201.8637057628859</v>
+        <v>201.8637057628864</v>
       </c>
       <c r="O4" t="n">
-        <v>196.267053289314</v>
+        <v>196.2670532893136</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27269,10 +27269,10 @@
         <v>35.14222482469643</v>
       </c>
       <c r="N4" t="n">
-        <v>201.8637057628859</v>
+        <v>201.8637057628865</v>
       </c>
       <c r="O4" t="n">
-        <v>196.2670532893141</v>
+        <v>196.2670532893136</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.8393621794714834</v>
+        <v>0.8393621794714858</v>
       </c>
       <c r="H14" t="n">
-        <v>8.596117920512333</v>
+        <v>8.596117920512357</v>
       </c>
       <c r="I14" t="n">
-        <v>32.35951042407439</v>
+        <v>32.35951042407449</v>
       </c>
       <c r="J14" t="n">
-        <v>71.23981577991788</v>
+        <v>71.23981577991809</v>
       </c>
       <c r="K14" t="n">
-        <v>106.7700168369458</v>
+        <v>106.7700168369461</v>
       </c>
       <c r="L14" t="n">
-        <v>132.4576471369462</v>
+        <v>132.4576471369466</v>
       </c>
       <c r="M14" t="n">
-        <v>147.3846542961222</v>
+        <v>147.3846542961226</v>
       </c>
       <c r="N14" t="n">
-        <v>149.7694920885456</v>
+        <v>149.769492088546</v>
       </c>
       <c r="O14" t="n">
-        <v>141.423084416426</v>
+        <v>141.4230844164264</v>
       </c>
       <c r="P14" t="n">
-        <v>120.7013306107237</v>
+        <v>120.7013306107241</v>
       </c>
       <c r="Q14" t="n">
-        <v>90.64167255840123</v>
+        <v>90.64167255840148</v>
       </c>
       <c r="R14" t="n">
-        <v>52.72558450622562</v>
+        <v>52.72558450622577</v>
       </c>
       <c r="S14" t="n">
-        <v>19.12696566470645</v>
+        <v>19.1269656647065</v>
       </c>
       <c r="T14" t="n">
-        <v>3.674307940636421</v>
+        <v>3.674307940636431</v>
       </c>
       <c r="U14" t="n">
-        <v>0.06714897435771866</v>
+        <v>0.06714897435771885</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.4490983585728794</v>
+        <v>0.4490983585728807</v>
       </c>
       <c r="H15" t="n">
-        <v>4.337344673585442</v>
+        <v>4.337344673585454</v>
       </c>
       <c r="I15" t="n">
-        <v>15.46237769647853</v>
+        <v>15.46237769647857</v>
       </c>
       <c r="J15" t="n">
-        <v>42.4299462369228</v>
+        <v>42.42994623692292</v>
       </c>
       <c r="K15" t="n">
-        <v>72.51953626130572</v>
+        <v>72.51953626130593</v>
       </c>
       <c r="L15" t="n">
-        <v>97.5114659699579</v>
+        <v>97.51146596995817</v>
       </c>
       <c r="M15" t="n">
-        <v>113.7912814682247</v>
+        <v>113.7912814682251</v>
       </c>
       <c r="N15" t="n">
-        <v>116.8029980921631</v>
+        <v>116.8029980921634</v>
       </c>
       <c r="O15" t="n">
-        <v>106.8519239364166</v>
+        <v>106.8519239364169</v>
       </c>
       <c r="P15" t="n">
-        <v>85.75808919099134</v>
+        <v>85.7580891909916</v>
       </c>
       <c r="Q15" t="n">
-        <v>57.32701152589949</v>
+        <v>57.32701152589966</v>
       </c>
       <c r="R15" t="n">
-        <v>27.88349282437581</v>
+        <v>27.88349282437589</v>
       </c>
       <c r="S15" t="n">
-        <v>8.341805037526944</v>
+        <v>8.341805037526967</v>
       </c>
       <c r="T15" t="n">
-        <v>1.810181541791562</v>
+        <v>1.810181541791567</v>
       </c>
       <c r="U15" t="n">
-        <v>0.02954594464295261</v>
+        <v>0.02954594464295269</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.3765089776358767</v>
+        <v>0.3765089776358778</v>
       </c>
       <c r="H16" t="n">
-        <v>3.347507092071706</v>
+        <v>3.347507092071716</v>
       </c>
       <c r="I16" t="n">
-        <v>11.3226518001771</v>
+        <v>11.32265180017713</v>
       </c>
       <c r="J16" t="n">
-        <v>26.61918471885648</v>
+        <v>26.61918471885656</v>
       </c>
       <c r="K16" t="n">
-        <v>43.74349758351367</v>
+        <v>43.74349758351379</v>
       </c>
       <c r="L16" t="n">
-        <v>55.97661654779208</v>
+        <v>55.97661654779224</v>
       </c>
       <c r="M16" t="n">
-        <v>59.01949364886747</v>
+        <v>59.01949364886764</v>
       </c>
       <c r="N16" t="n">
-        <v>57.61614200495197</v>
+        <v>57.61614200495214</v>
       </c>
       <c r="O16" t="n">
-        <v>53.21783258438739</v>
+        <v>53.21783258438755</v>
       </c>
       <c r="P16" t="n">
-        <v>45.53704944061548</v>
+        <v>45.5370494406156</v>
       </c>
       <c r="Q16" t="n">
-        <v>31.52749266367328</v>
+        <v>31.52749266367337</v>
       </c>
       <c r="R16" t="n">
-        <v>16.92921275806405</v>
+        <v>16.9292127580641</v>
       </c>
       <c r="S16" t="n">
-        <v>6.561524637527049</v>
+        <v>6.561524637527068</v>
       </c>
       <c r="T16" t="n">
-        <v>1.608720177171473</v>
+        <v>1.608720177171477</v>
       </c>
       <c r="U16" t="n">
-        <v>0.0205368533255933</v>
+        <v>0.02053685332559336</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,13 +32226,13 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H17" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I17" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J17" t="n">
         <v>128.8865178727436</v>
@@ -32250,22 +32250,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O17" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P17" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q17" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R17" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S17" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T17" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U17" t="n">
         <v>0.1214853995472036</v>
@@ -32305,16 +32305,16 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H18" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I18" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J18" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K18" t="n">
         <v>131.2017781649102</v>
@@ -32338,16 +32338,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R18" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S18" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T18" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U18" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,19 +32384,19 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H19" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I19" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J19" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K19" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L19" t="n">
         <v>101.2724571246924</v>
@@ -32408,13 +32408,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O19" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P19" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q19" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R19" t="n">
         <v>30.62819939701163</v>
@@ -32423,7 +32423,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T19" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U19" t="n">
         <v>0.0371551145131561</v>
@@ -32463,13 +32463,13 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H20" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I20" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J20" t="n">
         <v>128.8865178727436</v>
@@ -32487,22 +32487,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O20" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P20" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q20" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R20" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S20" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T20" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U20" t="n">
         <v>0.1214853995472036</v>
@@ -32542,16 +32542,16 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H21" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I21" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J21" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K21" t="n">
         <v>131.2017781649102</v>
@@ -32575,16 +32575,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R21" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S21" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T21" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U21" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,19 +32621,19 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H22" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I22" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J22" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K22" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L22" t="n">
         <v>101.2724571246924</v>
@@ -32645,13 +32645,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O22" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P22" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q22" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R22" t="n">
         <v>30.62819939701163</v>
@@ -32660,7 +32660,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T22" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U22" t="n">
         <v>0.0371551145131561</v>
@@ -32700,13 +32700,13 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H23" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I23" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J23" t="n">
         <v>128.8865178727436</v>
@@ -32724,22 +32724,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O23" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P23" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q23" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R23" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S23" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T23" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U23" t="n">
         <v>0.1214853995472036</v>
@@ -32779,16 +32779,16 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H24" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I24" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J24" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K24" t="n">
         <v>131.2017781649102</v>
@@ -32812,16 +32812,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R24" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S24" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T24" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U24" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,19 +32858,19 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H25" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I25" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J25" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K25" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L25" t="n">
         <v>101.2724571246924</v>
@@ -32882,13 +32882,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O25" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P25" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q25" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R25" t="n">
         <v>30.62819939701163</v>
@@ -32897,7 +32897,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T25" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U25" t="n">
         <v>0.0371551145131561</v>
@@ -32937,13 +32937,13 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H26" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I26" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J26" t="n">
         <v>128.8865178727436</v>
@@ -32961,22 +32961,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O26" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P26" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q26" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R26" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S26" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T26" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U26" t="n">
         <v>0.1214853995472036</v>
@@ -33016,16 +33016,16 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H27" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I27" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J27" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K27" t="n">
         <v>131.2017781649102</v>
@@ -33049,16 +33049,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R27" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S27" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T27" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U27" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,19 +33095,19 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H28" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I28" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J28" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K28" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L28" t="n">
         <v>101.2724571246924</v>
@@ -33119,13 +33119,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O28" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P28" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q28" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R28" t="n">
         <v>30.62819939701163</v>
@@ -33134,7 +33134,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T28" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U28" t="n">
         <v>0.0371551145131561</v>
@@ -33174,13 +33174,13 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H29" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I29" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J29" t="n">
         <v>128.8865178727436</v>
@@ -33198,22 +33198,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O29" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P29" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q29" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R29" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S29" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T29" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U29" t="n">
         <v>0.1214853995472036</v>
@@ -33253,16 +33253,16 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H30" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I30" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J30" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K30" t="n">
         <v>131.2017781649102</v>
@@ -33286,16 +33286,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R30" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S30" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T30" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U30" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,19 +33332,19 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H31" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I31" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J31" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K31" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L31" t="n">
         <v>101.2724571246924</v>
@@ -33356,13 +33356,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O31" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P31" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q31" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R31" t="n">
         <v>30.62819939701163</v>
@@ -33371,7 +33371,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T31" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U31" t="n">
         <v>0.0371551145131561</v>
@@ -34710,7 +34710,7 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N2" t="n">
-        <v>207.9338608153933</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O2" t="n">
         <v>150.7019698410586</v>
@@ -34789,7 +34789,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N3" t="n">
-        <v>241.0142888776591</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="O3" t="n">
         <v>241.0142888776591</v>
@@ -34798,7 +34798,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q3" t="n">
-        <v>46.78797658628819</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35017,16 +35017,16 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N6" t="n">
-        <v>55.51629994036225</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="O6" t="n">
         <v>241.0142888776591</v>
@@ -35035,7 +35035,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35257,19 +35257,19 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O9" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P9" t="n">
-        <v>184.4883612256069</v>
+        <v>104.6525397736754</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35488,13 +35488,13 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>6.370323552522133</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>16.95427887837169</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>248.6418854471727</v>
       </c>
       <c r="M12" t="n">
         <v>276.1565137023555</v>
@@ -35506,10 +35506,10 @@
         <v>269.1887005891756</v>
       </c>
       <c r="P12" t="n">
-        <v>198.8728484821096</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>73.09363939595706</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35646,28 +35646,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>59.29052642530536</v>
+        <v>59.29052642530557</v>
       </c>
       <c r="K14" t="n">
-        <v>210.82557836313</v>
+        <v>210.8255783631303</v>
       </c>
       <c r="L14" t="n">
-        <v>314.3524467174094</v>
+        <v>314.3524467174098</v>
       </c>
       <c r="M14" t="n">
-        <v>366.551954561682</v>
+        <v>366.5519545616824</v>
       </c>
       <c r="N14" t="n">
-        <v>357.7033529039388</v>
+        <v>357.7033529039393</v>
       </c>
       <c r="O14" t="n">
-        <v>292.1250542574846</v>
+        <v>292.1250542574851</v>
       </c>
       <c r="P14" t="n">
-        <v>211.2670430269368</v>
+        <v>211.2670430269372</v>
       </c>
       <c r="Q14" t="n">
-        <v>80.65097334385642</v>
+        <v>80.65097334385668</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35731,22 +35731,22 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>329.7974314935429</v>
+        <v>234.813983590128</v>
       </c>
       <c r="M15" t="n">
-        <v>437.3623112962063</v>
+        <v>437.3623112962067</v>
       </c>
       <c r="N15" t="n">
-        <v>464.8036603523833</v>
+        <v>464.8036603523836</v>
       </c>
       <c r="O15" t="n">
-        <v>358.1179987687017</v>
+        <v>358.117998768702</v>
       </c>
       <c r="P15" t="n">
-        <v>175.2630025131826</v>
+        <v>270.2464504165985</v>
       </c>
       <c r="Q15" t="n">
-        <v>127.4225251757271</v>
+        <v>127.4225251757272</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35807,22 +35807,22 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>21.47400575763081</v>
+        <v>21.47400575763094</v>
       </c>
       <c r="L16" t="n">
-        <v>83.56664180810822</v>
+        <v>83.56664180810839</v>
       </c>
       <c r="M16" t="n">
-        <v>98.60337061070805</v>
+        <v>98.60337061070823</v>
       </c>
       <c r="N16" t="n">
-        <v>101.7483143841806</v>
+        <v>101.7483143841807</v>
       </c>
       <c r="O16" t="n">
-        <v>77.80296049842707</v>
+        <v>77.80296049842723</v>
       </c>
       <c r="P16" t="n">
-        <v>42.81560870550896</v>
+        <v>42.81560870550909</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35898,10 +35898,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O17" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P17" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q17" t="n">
         <v>153.9975062898689</v>
@@ -35962,7 +35962,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>76.01733575770689</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K18" t="n">
         <v>257.8255762031298</v>
@@ -35974,13 +35974,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N18" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O18" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P18" t="n">
-        <v>220.2054057751866</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q18" t="n">
         <v>173.8110948137341</v>
@@ -36044,7 +36044,7 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L19" t="n">
         <v>128.8624823850085</v>
@@ -36059,7 +36059,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P19" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36135,10 +36135,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O20" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P20" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q20" t="n">
         <v>153.9975062898689</v>
@@ -36199,10 +36199,10 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K21" t="n">
-        <v>214.4070918624587</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L21" t="n">
         <v>408.7029475713857</v>
@@ -36211,10 +36211,10 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N21" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O21" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P21" t="n">
         <v>339.6412258735646</v>
@@ -36281,7 +36281,7 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L22" t="n">
         <v>128.8624823850085</v>
@@ -36296,7 +36296,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P22" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36372,10 +36372,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O23" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P23" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q23" t="n">
         <v>153.9975062898689</v>
@@ -36439,7 +36439,7 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624591</v>
       </c>
       <c r="L24" t="n">
         <v>408.7029475713857</v>
@@ -36451,13 +36451,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O24" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P24" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q24" t="n">
-        <v>130.3926104730626</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36518,7 +36518,7 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L25" t="n">
         <v>128.8624823850085</v>
@@ -36533,7 +36533,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P25" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -36597,22 +36597,22 @@
         <v>116.937228518131</v>
       </c>
       <c r="K26" t="n">
-        <v>297.2230414343417</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L26" t="n">
         <v>421.5361394435301</v>
       </c>
       <c r="M26" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060963</v>
       </c>
       <c r="N26" t="n">
         <v>478.8956552492236</v>
       </c>
       <c r="O26" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P26" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q26" t="n">
         <v>153.9975062898689</v>
@@ -36676,7 +36676,7 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>214.4070918624591</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L27" t="n">
         <v>408.7029475713857</v>
@@ -36688,13 +36688,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O27" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P27" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q27" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36755,7 +36755,7 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L28" t="n">
         <v>128.8624823850085</v>
@@ -36770,7 +36770,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P28" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -36831,7 +36831,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181308</v>
       </c>
       <c r="K29" t="n">
         <v>297.2230414343419</v>
@@ -36846,10 +36846,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O29" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P29" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q29" t="n">
         <v>153.9975062898689</v>
@@ -36916,16 +36916,16 @@
         <v>257.8255762031298</v>
       </c>
       <c r="L30" t="n">
-        <v>365.284463230715</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M30" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N30" t="n">
-        <v>559.3197334338902</v>
+        <v>515.9012490932197</v>
       </c>
       <c r="O30" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P30" t="n">
         <v>339.6412258735646</v>
@@ -36992,7 +36992,7 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L31" t="n">
         <v>128.8624823850085</v>
@@ -37007,7 +37007,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P31" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -37147,10 +37147,10 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>138.3897561047517</v>
+        <v>214.4070918624591</v>
       </c>
       <c r="L33" t="n">
         <v>408.7029475713857</v>
@@ -37563,7 +37563,7 @@
         <v>308.9376163116798</v>
       </c>
       <c r="Q38" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37621,16 +37621,16 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624591</v>
       </c>
       <c r="L39" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M39" t="n">
-        <v>410.0055067279158</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N39" t="n">
         <v>559.3197334338902</v>
@@ -37800,7 +37800,7 @@
         <v>308.9376163116798</v>
       </c>
       <c r="Q41" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37858,10 +37858,10 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624591</v>
       </c>
       <c r="L42" t="n">
         <v>408.7029475713857</v>
@@ -37870,7 +37870,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N42" t="n">
-        <v>439.8839133355119</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O42" t="n">
         <v>444.5817404245898</v>
@@ -38107,7 +38107,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N45" t="n">
-        <v>515.9012490932188</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O45" t="n">
         <v>444.5817404245897</v>
@@ -38116,7 +38116,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q45" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
